--- a/TRIMAZKON/excel_testing_projekt_533.xlsx
+++ b/TRIMAZKON/excel_testing_projekt_533.xlsx
@@ -548,7 +548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,7 +611,7 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>14.10.2024</t>
+          <t>29.10.2024</t>
         </is>
       </c>
     </row>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="F25" s="7" t="inlineStr">
         <is>
-          <t>
+          <t xml:space="preserve">Alternativa: DLU-140W-HI
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="F26" s="7" t="inlineStr">
         <is>
-          <t>
+          <t xml:space="preserve">Alternativa: 3Z4S-LE SV-3514H
 </t>
         </is>
       </c>
@@ -1531,194 +1531,182 @@
 </t>
         </is>
       </c>
-      <c r="I35" s="7" t="inlineStr"/>
-      <c r="J35" s="7" t="inlineStr"/>
+      <c r="I35" s="7" t="inlineStr">
+        <is>
+          <t>kamera</t>
+        </is>
+      </c>
+      <c r="J35" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="9" t="n"/>
-      <c r="B36" s="10" t="n"/>
-      <c r="C36" s="10" t="n"/>
-      <c r="D36" s="10" t="n"/>
-      <c r="E36" s="10" t="n"/>
-      <c r="F36" s="10" t="n"/>
-      <c r="G36" s="10" t="n"/>
-      <c r="H36" s="10" t="n"/>
-      <c r="I36" s="10" t="n"/>
-      <c r="J36" s="10" t="n"/>
+      <c r="A36" s="6" t="n"/>
+      <c r="B36" s="7" t="n"/>
+      <c r="C36" s="7" t="n"/>
+      <c r="D36" s="7" t="n"/>
+      <c r="E36" s="7" t="inlineStr">
+        <is>
+          <t>3Z4S-LE SV-5014H</t>
+        </is>
+      </c>
+      <c r="F36" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="G36" s="7" t="n"/>
+      <c r="H36" s="7" t="n"/>
+      <c r="I36" s="7" t="inlineStr">
+        <is>
+          <t>FH-MT12</t>
+        </is>
+      </c>
+      <c r="J36" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="inlineStr">
+      <c r="A37" s="6" t="n"/>
+      <c r="B37" s="7" t="n"/>
+      <c r="C37" s="7" t="n"/>
+      <c r="D37" s="7" t="n"/>
+      <c r="E37" s="11" t="inlineStr">
+        <is>
+          <t>LA-70W</t>
+        </is>
+      </c>
+      <c r="F37" s="11" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="G37" s="7" t="n"/>
+      <c r="H37" s="7" t="n"/>
+      <c r="I37" s="7" t="inlineStr">
+        <is>
+          <t>FH-MT12</t>
+        </is>
+      </c>
+      <c r="J37" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n"/>
+      <c r="B38" s="7" t="n"/>
+      <c r="C38" s="7" t="n"/>
+      <c r="D38" s="7" t="n"/>
+      <c r="E38" s="11" t="inlineStr">
+        <is>
+          <t>BL-50W-4S</t>
+        </is>
+      </c>
+      <c r="F38" s="11" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="G38" s="7" t="n"/>
+      <c r="H38" s="7" t="n"/>
+      <c r="I38" s="7" t="n"/>
+      <c r="J38" s="7" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="n"/>
+      <c r="B39" s="10" t="n"/>
+      <c r="C39" s="10" t="n"/>
+      <c r="D39" s="10" t="n"/>
+      <c r="E39" s="10" t="n"/>
+      <c r="F39" s="10" t="n"/>
+      <c r="G39" s="10" t="n"/>
+      <c r="H39" s="10" t="n"/>
+      <c r="I39" s="10" t="n"/>
+      <c r="J39" s="10" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="inlineStr">
         <is>
           <t>ST270</t>
         </is>
       </c>
-      <c r="B37" s="7" t="inlineStr">
+      <c r="B40" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">Kontrola naohýbání drátku 
 </t>
         </is>
       </c>
-      <c r="C37" s="7" t="inlineStr">
+      <c r="C40" s="7" t="inlineStr">
         <is>
           <t>FH-SMX05</t>
         </is>
       </c>
-      <c r="D37" s="7" t="inlineStr">
+      <c r="D40" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">5Mpx kamera + Telecentrika 
 svìtlo: BL-50W-4S
 </t>
         </is>
       </c>
-      <c r="E37" s="7" t="inlineStr">
+      <c r="E40" s="7" t="inlineStr">
         <is>
           <t>TO42/16.0-120-V-BW</t>
         </is>
       </c>
-      <c r="F37" s="7" t="inlineStr">
+      <c r="F40" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">Telecentrika 
 </t>
         </is>
       </c>
-      <c r="G37" s="12" t="inlineStr">
+      <c r="G40" s="12" t="inlineStr">
         <is>
           <t>FH-2051-10</t>
         </is>
       </c>
-      <c r="H37" s="7" t="inlineStr">
+      <c r="H40" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">KG03(FH-2051-10)
 192.168.0.27
 </t>
         </is>
       </c>
-      <c r="I37" s="7" t="inlineStr"/>
-      <c r="J37" s="7" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="9" t="n"/>
-      <c r="B38" s="10" t="n"/>
-      <c r="C38" s="10" t="n"/>
-      <c r="D38" s="10" t="n"/>
-      <c r="E38" s="10" t="n"/>
-      <c r="F38" s="10" t="n"/>
-      <c r="G38" s="10" t="n"/>
-      <c r="H38" s="10" t="n"/>
-      <c r="I38" s="10" t="n"/>
-      <c r="J38" s="10" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="6" t="inlineStr">
-        <is>
-          <t>ST290</t>
-        </is>
-      </c>
-      <c r="B39" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kontrola pinů po založení do housingu 
-</t>
-        </is>
-      </c>
-      <c r="C39" s="7" t="inlineStr">
-        <is>
-          <t>FH-SMX05</t>
-        </is>
-      </c>
-      <c r="D39" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5Mpx kamera 
-svìtlo: LA-70W
-</t>
-        </is>
-      </c>
-      <c r="E39" s="7" t="inlineStr">
-        <is>
-          <t>TO42/16.0-120-V-BW</t>
-        </is>
-      </c>
-      <c r="F39" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-      <c r="G39" s="12" t="inlineStr">
-        <is>
-          <t>FH-2051-10</t>
-        </is>
-      </c>
-      <c r="H39" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">KG03(FH-2051-10)
-192.168.0.27
-</t>
-        </is>
-      </c>
-      <c r="I39" s="7" t="inlineStr"/>
-      <c r="J39" s="7" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="9" t="n"/>
-      <c r="B40" s="10" t="n"/>
-      <c r="C40" s="10" t="n"/>
-      <c r="D40" s="10" t="n"/>
-      <c r="E40" s="10" t="n"/>
-      <c r="F40" s="10" t="n"/>
-      <c r="G40" s="10" t="n"/>
-      <c r="H40" s="10" t="n"/>
-      <c r="I40" s="10" t="n"/>
-      <c r="J40" s="10" t="n"/>
+      <c r="I40" s="7" t="inlineStr">
+        <is>
+          <t>kamera</t>
+        </is>
+      </c>
+      <c r="J40" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="inlineStr">
-        <is>
-          <t>ST310</t>
-        </is>
-      </c>
-      <c r="B41" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kontrola pájecí pasty + měření. Drátek již bude osazen.
-</t>
-        </is>
-      </c>
-      <c r="C41" s="7" t="inlineStr">
-        <is>
-          <t>FH-SMX05</t>
-        </is>
-      </c>
-      <c r="D41" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5Mpx kamera + Doom světlo + Telecentrika
-</t>
-        </is>
-      </c>
-      <c r="E41" s="7" t="inlineStr">
-        <is>
-          <t>TO42/16.0-120-V-BW</t>
-        </is>
-      </c>
-      <c r="F41" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Telecentrika
-</t>
-        </is>
-      </c>
-      <c r="G41" s="13" t="inlineStr">
-        <is>
-          <t>FH-2051-20</t>
-        </is>
-      </c>
-      <c r="H41" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">KG04(FH-2051-20)
-192.168.0.28
-</t>
-        </is>
-      </c>
+      <c r="A41" s="6" t="n"/>
+      <c r="B41" s="7" t="n"/>
+      <c r="C41" s="7" t="n"/>
+      <c r="D41" s="7" t="n"/>
+      <c r="E41" s="7" t="inlineStr"/>
+      <c r="F41" s="7" t="inlineStr"/>
+      <c r="G41" s="7" t="n"/>
+      <c r="H41" s="7" t="n"/>
       <c r="I41" s="7" t="inlineStr">
         <is>
-          <t>monitor</t>
+          <t>FH-MT12</t>
         </is>
       </c>
       <c r="J41" s="7" t="inlineStr">
@@ -1739,7 +1727,7 @@
       <c r="H42" s="7" t="n"/>
       <c r="I42" s="7" t="inlineStr">
         <is>
-          <t>monitor</t>
+          <t>FH-MT12</t>
         </is>
       </c>
       <c r="J42" s="7" t="inlineStr">
@@ -1750,89 +1738,88 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="n"/>
-      <c r="B43" s="7" t="n"/>
-      <c r="C43" s="7" t="n"/>
-      <c r="D43" s="7" t="n"/>
-      <c r="E43" s="7" t="inlineStr"/>
-      <c r="F43" s="7" t="inlineStr"/>
-      <c r="G43" s="7" t="n"/>
-      <c r="H43" s="7" t="n"/>
-      <c r="I43" s="7" t="inlineStr">
-        <is>
-          <t>NAS</t>
-        </is>
-      </c>
-      <c r="J43" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+      <c r="A43" s="9" t="n"/>
+      <c r="B43" s="10" t="n"/>
+      <c r="C43" s="10" t="n"/>
+      <c r="D43" s="10" t="n"/>
+      <c r="E43" s="10" t="n"/>
+      <c r="F43" s="10" t="n"/>
+      <c r="G43" s="10" t="n"/>
+      <c r="H43" s="10" t="n"/>
+      <c r="I43" s="10" t="n"/>
+      <c r="J43" s="10" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="9" t="n"/>
-      <c r="B44" s="10" t="n"/>
-      <c r="C44" s="10" t="n"/>
-      <c r="D44" s="10" t="n"/>
-      <c r="E44" s="10" t="n"/>
-      <c r="F44" s="10" t="n"/>
-      <c r="G44" s="10" t="n"/>
-      <c r="H44" s="10" t="n"/>
-      <c r="I44" s="10" t="n"/>
-      <c r="J44" s="10" t="n"/>
+      <c r="A44" s="6" t="inlineStr">
+        <is>
+          <t>ST290</t>
+        </is>
+      </c>
+      <c r="B44" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kontrola pinů po založení do housingu 
+</t>
+        </is>
+      </c>
+      <c r="C44" s="7" t="inlineStr">
+        <is>
+          <t>FH-SMX05</t>
+        </is>
+      </c>
+      <c r="D44" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5Mpx kamera 
+svìtlo: LA-70W
+</t>
+        </is>
+      </c>
+      <c r="E44" s="7" t="inlineStr">
+        <is>
+          <t>TO42/16.0-120-V-BW</t>
+        </is>
+      </c>
+      <c r="F44" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="G44" s="12" t="inlineStr">
+        <is>
+          <t>FH-2051-10</t>
+        </is>
+      </c>
+      <c r="H44" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KG03(FH-2051-10)
+192.168.0.27
+</t>
+        </is>
+      </c>
+      <c r="I44" s="7" t="inlineStr">
+        <is>
+          <t>kamera</t>
+        </is>
+      </c>
+      <c r="J44" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="inlineStr">
-        <is>
-          <t>ST360</t>
-        </is>
-      </c>
-      <c r="B45" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Celková kontrola zapájených drátku - pozice, měření, zapájení…. 
-Nechceme kontrolovat studené spoje ! 
-</t>
-        </is>
-      </c>
-      <c r="C45" s="7" t="inlineStr">
-        <is>
-          <t>FH-SCX12</t>
-        </is>
-      </c>
-      <c r="D45" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12MPix barevná
-svìtlo: FL-MD90MC
-</t>
-        </is>
-      </c>
-      <c r="E45" s="7" t="inlineStr">
-        <is>
-          <t>3Z4S-LE SV-3514H</t>
-        </is>
-      </c>
-      <c r="F45" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-      <c r="G45" s="13" t="inlineStr">
-        <is>
-          <t>FH-2051-20</t>
-        </is>
-      </c>
-      <c r="H45" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">KG04(FH-2051-20)
-192.168.0.28
-</t>
-        </is>
-      </c>
+      <c r="A45" s="6" t="n"/>
+      <c r="B45" s="7" t="n"/>
+      <c r="C45" s="7" t="n"/>
+      <c r="D45" s="7" t="n"/>
+      <c r="E45" s="7" t="inlineStr"/>
+      <c r="F45" s="7" t="inlineStr"/>
+      <c r="G45" s="7" t="n"/>
+      <c r="H45" s="7" t="n"/>
       <c r="I45" s="7" t="inlineStr">
         <is>
-          <t>monitor</t>
+          <t>FH-MT12</t>
         </is>
       </c>
       <c r="J45" s="7" t="inlineStr">
@@ -1853,7 +1840,7 @@
       <c r="H46" s="7" t="n"/>
       <c r="I46" s="7" t="inlineStr">
         <is>
-          <t>monitor</t>
+          <t>FH-MT12</t>
         </is>
       </c>
       <c r="J46" s="7" t="inlineStr">
@@ -1864,85 +1851,84 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="n"/>
-      <c r="B47" s="7" t="n"/>
-      <c r="C47" s="7" t="n"/>
-      <c r="D47" s="7" t="n"/>
-      <c r="E47" s="7" t="inlineStr"/>
-      <c r="F47" s="7" t="inlineStr"/>
-      <c r="G47" s="7" t="n"/>
-      <c r="H47" s="7" t="n"/>
-      <c r="I47" s="7" t="inlineStr">
-        <is>
-          <t>NAS</t>
-        </is>
-      </c>
-      <c r="J47" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+      <c r="A47" s="9" t="n"/>
+      <c r="B47" s="10" t="n"/>
+      <c r="C47" s="10" t="n"/>
+      <c r="D47" s="10" t="n"/>
+      <c r="E47" s="10" t="n"/>
+      <c r="F47" s="10" t="n"/>
+      <c r="G47" s="10" t="n"/>
+      <c r="H47" s="10" t="n"/>
+      <c r="I47" s="10" t="n"/>
+      <c r="J47" s="10" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="9" t="n"/>
-      <c r="B48" s="10" t="n"/>
-      <c r="C48" s="10" t="n"/>
-      <c r="D48" s="10" t="n"/>
-      <c r="E48" s="10" t="n"/>
-      <c r="F48" s="10" t="n"/>
-      <c r="G48" s="10" t="n"/>
-      <c r="H48" s="10" t="n"/>
-      <c r="I48" s="10" t="n"/>
-      <c r="J48" s="10" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="6" t="inlineStr">
-        <is>
-          <t>ST410</t>
-        </is>
-      </c>
-      <c r="B49" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pozice PCB 
-</t>
-        </is>
-      </c>
-      <c r="C49" s="7" t="inlineStr">
+      <c r="A48" s="6" t="inlineStr">
+        <is>
+          <t>ST310</t>
+        </is>
+      </c>
+      <c r="B48" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kontrola pájecí pasty + měření. Drátek již bude osazen.
+</t>
+        </is>
+      </c>
+      <c r="C48" s="7" t="inlineStr">
         <is>
           <t>FH-SMX05</t>
         </is>
       </c>
-      <c r="D49" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5Mpx kamera + Doom světlo 
-svìtlo: L-120W-HI
-</t>
-        </is>
-      </c>
-      <c r="E49" s="7" t="inlineStr">
-        <is>
-          <t>3Z4S-LE SV-3514H</t>
-        </is>
-      </c>
-      <c r="F49" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-      <c r="G49" s="13" t="inlineStr">
+      <c r="D48" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5Mpx kamera + Doom světlo + Telecentrika
+</t>
+        </is>
+      </c>
+      <c r="E48" s="7" t="inlineStr">
+        <is>
+          <t>TO42/16.0-120-V-BW</t>
+        </is>
+      </c>
+      <c r="F48" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Telecentrika
+</t>
+        </is>
+      </c>
+      <c r="G48" s="13" t="inlineStr">
         <is>
           <t>FH-2051-20</t>
         </is>
       </c>
-      <c r="H49" s="7" t="inlineStr">
+      <c r="H48" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">KG04(FH-2051-20)
 192.168.0.28
 </t>
         </is>
       </c>
+      <c r="I48" s="7" t="inlineStr">
+        <is>
+          <t>monitor</t>
+        </is>
+      </c>
+      <c r="J48" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n"/>
+      <c r="B49" s="7" t="n"/>
+      <c r="C49" s="7" t="n"/>
+      <c r="D49" s="7" t="n"/>
+      <c r="E49" s="7" t="inlineStr"/>
+      <c r="F49" s="7" t="inlineStr"/>
+      <c r="G49" s="7" t="n"/>
+      <c r="H49" s="7" t="n"/>
       <c r="I49" s="7" t="inlineStr">
         <is>
           <t>monitor</t>
@@ -1960,237 +1946,463 @@
       <c r="B50" s="7" t="n"/>
       <c r="C50" s="7" t="n"/>
       <c r="D50" s="7" t="n"/>
-      <c r="E50" s="11" t="inlineStr">
-        <is>
-          <t>BL-50W-4S</t>
-        </is>
-      </c>
-      <c r="F50" s="11" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+      <c r="E50" s="7" t="inlineStr"/>
+      <c r="F50" s="7" t="inlineStr"/>
       <c r="G50" s="7" t="n"/>
       <c r="H50" s="7" t="n"/>
       <c r="I50" s="7" t="inlineStr">
         <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="J50" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="n"/>
+      <c r="B51" s="10" t="n"/>
+      <c r="C51" s="10" t="n"/>
+      <c r="D51" s="10" t="n"/>
+      <c r="E51" s="10" t="n"/>
+      <c r="F51" s="10" t="n"/>
+      <c r="G51" s="10" t="n"/>
+      <c r="H51" s="10" t="n"/>
+      <c r="I51" s="10" t="n"/>
+      <c r="J51" s="10" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="inlineStr">
+        <is>
+          <t>ST360</t>
+        </is>
+      </c>
+      <c r="B52" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Celková kontrola zapájených drátku - pozice, měření, zapájení…. 
+Nechceme kontrolovat studené spoje ! 
+</t>
+        </is>
+      </c>
+      <c r="C52" s="7" t="inlineStr">
+        <is>
+          <t>FH-SCX12</t>
+        </is>
+      </c>
+      <c r="D52" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12MPix barevná
+svìtlo: FL-MD90MC
+</t>
+        </is>
+      </c>
+      <c r="E52" s="7" t="inlineStr">
+        <is>
+          <t>3Z4S-LE SV-3514H</t>
+        </is>
+      </c>
+      <c r="F52" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="G52" s="13" t="inlineStr">
+        <is>
+          <t>FH-2051-20</t>
+        </is>
+      </c>
+      <c r="H52" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KG04(FH-2051-20)
+192.168.0.28
+</t>
+        </is>
+      </c>
+      <c r="I52" s="7" t="inlineStr">
+        <is>
           <t>monitor</t>
         </is>
       </c>
-      <c r="J50" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="6" t="n"/>
-      <c r="B51" s="7" t="n"/>
-      <c r="C51" s="7" t="n"/>
-      <c r="D51" s="7" t="n"/>
-      <c r="E51" s="7" t="inlineStr"/>
-      <c r="F51" s="7" t="inlineStr">
+      <c r="J52" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n"/>
+      <c r="B53" s="7" t="n"/>
+      <c r="C53" s="7" t="n"/>
+      <c r="D53" s="7" t="n"/>
+      <c r="E53" s="7" t="inlineStr"/>
+      <c r="F53" s="7" t="inlineStr"/>
+      <c r="G53" s="7" t="n"/>
+      <c r="H53" s="7" t="n"/>
+      <c r="I53" s="7" t="inlineStr">
+        <is>
+          <t>monitor</t>
+        </is>
+      </c>
+      <c r="J53" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="n"/>
+      <c r="B54" s="7" t="n"/>
+      <c r="C54" s="7" t="n"/>
+      <c r="D54" s="7" t="n"/>
+      <c r="E54" s="7" t="inlineStr"/>
+      <c r="F54" s="7" t="inlineStr"/>
+      <c r="G54" s="7" t="n"/>
+      <c r="H54" s="7" t="n"/>
+      <c r="I54" s="7" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="J54" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="n"/>
+      <c r="B55" s="10" t="n"/>
+      <c r="C55" s="10" t="n"/>
+      <c r="D55" s="10" t="n"/>
+      <c r="E55" s="10" t="n"/>
+      <c r="F55" s="10" t="n"/>
+      <c r="G55" s="10" t="n"/>
+      <c r="H55" s="10" t="n"/>
+      <c r="I55" s="10" t="n"/>
+      <c r="J55" s="10" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="inlineStr">
+        <is>
+          <t>ST410</t>
+        </is>
+      </c>
+      <c r="B56" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pozice PCB 
+</t>
+        </is>
+      </c>
+      <c r="C56" s="7" t="inlineStr">
+        <is>
+          <t>FH-SMX05</t>
+        </is>
+      </c>
+      <c r="D56" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5Mpx kamera + Doom světlo 
+svìtlo: L-120W-HI
+</t>
+        </is>
+      </c>
+      <c r="E56" s="7" t="inlineStr">
+        <is>
+          <t>3Z4S-LE SV-3514H</t>
+        </is>
+      </c>
+      <c r="F56" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="G56" s="13" t="inlineStr">
+        <is>
+          <t>FH-2051-20</t>
+        </is>
+      </c>
+      <c r="H56" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KG04(FH-2051-20)
+192.168.0.28
+</t>
+        </is>
+      </c>
+      <c r="I56" s="7" t="inlineStr">
+        <is>
+          <t>monitor</t>
+        </is>
+      </c>
+      <c r="J56" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="n"/>
+      <c r="B57" s="7" t="n"/>
+      <c r="C57" s="7" t="n"/>
+      <c r="D57" s="7" t="n"/>
+      <c r="E57" s="11" t="inlineStr">
+        <is>
+          <t>BL-50W-4S</t>
+        </is>
+      </c>
+      <c r="F57" s="11" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="G57" s="7" t="n"/>
+      <c r="H57" s="7" t="n"/>
+      <c r="I57" s="7" t="inlineStr">
+        <is>
+          <t>monitor</t>
+        </is>
+      </c>
+      <c r="J57" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="n"/>
+      <c r="B58" s="7" t="n"/>
+      <c r="C58" s="7" t="n"/>
+      <c r="D58" s="7" t="n"/>
+      <c r="E58" s="7" t="inlineStr"/>
+      <c r="F58" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">5465
 </t>
         </is>
       </c>
-      <c r="G51" s="7" t="n"/>
-      <c r="H51" s="7" t="n"/>
-      <c r="I51" s="7" t="inlineStr">
+      <c r="G58" s="7" t="n"/>
+      <c r="H58" s="7" t="n"/>
+      <c r="I58" s="7" t="inlineStr">
         <is>
           <t>NAS</t>
         </is>
       </c>
-      <c r="J51" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="6" t="n"/>
-      <c r="B52" s="7" t="n"/>
-      <c r="C52" s="7" t="inlineStr">
+      <c r="J58" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="n"/>
+      <c r="B59" s="7" t="n"/>
+      <c r="C59" s="7" t="inlineStr">
         <is>
           <t>FH-SCX03</t>
         </is>
       </c>
-      <c r="D52" s="7" t="inlineStr">
+      <c r="D59" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">564156
 </t>
         </is>
       </c>
-      <c r="E52" s="7" t="inlineStr"/>
-      <c r="F52" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-      <c r="G52" s="7" t="n"/>
-      <c r="H52" s="7" t="n"/>
-      <c r="I52" s="7" t="n"/>
-      <c r="J52" s="7" t="n"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="9" t="n"/>
-      <c r="B53" s="10" t="n"/>
-      <c r="C53" s="10" t="n"/>
-      <c r="D53" s="10" t="n"/>
-      <c r="E53" s="10" t="n"/>
-      <c r="F53" s="10" t="n"/>
-      <c r="G53" s="10" t="n"/>
-      <c r="H53" s="10" t="n"/>
-      <c r="I53" s="10" t="n"/>
-      <c r="J53" s="10" t="n"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="6" t="inlineStr">
+      <c r="E59" s="7" t="inlineStr"/>
+      <c r="F59" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="G59" s="7" t="n"/>
+      <c r="H59" s="7" t="n"/>
+      <c r="I59" s="7" t="n"/>
+      <c r="J59" s="7" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="n"/>
+      <c r="B60" s="10" t="n"/>
+      <c r="C60" s="10" t="n"/>
+      <c r="D60" s="10" t="n"/>
+      <c r="E60" s="10" t="n"/>
+      <c r="F60" s="10" t="n"/>
+      <c r="G60" s="10" t="n"/>
+      <c r="H60" s="10" t="n"/>
+      <c r="I60" s="10" t="n"/>
+      <c r="J60" s="10" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="inlineStr">
         <is>
           <t>ST395</t>
         </is>
       </c>
-      <c r="B54" s="7" t="inlineStr">
+      <c r="B61" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">?????
 </t>
         </is>
       </c>
-      <c r="C54" s="7" t="inlineStr">
+      <c r="C61" s="7" t="inlineStr">
         <is>
           <t>FH-SMX05</t>
         </is>
       </c>
-      <c r="D54" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-      <c r="E54" s="7" t="inlineStr"/>
-      <c r="F54" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-      <c r="G54" s="14" t="inlineStr">
+      <c r="D61" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E61" s="7" t="inlineStr"/>
+      <c r="F61" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="G61" s="14" t="inlineStr">
         <is>
           <t>FH-2051-10</t>
         </is>
       </c>
-      <c r="H54" s="7" t="inlineStr">
+      <c r="H61" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">KG05(FH-2051-10)
 192.168.0.29
 </t>
         </is>
       </c>
-      <c r="I54" s="7" t="inlineStr"/>
-      <c r="J54" s="7" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="6" t="n"/>
-      <c r="B55" s="7" t="n"/>
-      <c r="C55" s="7" t="inlineStr">
+      <c r="I61" s="7" t="inlineStr"/>
+      <c r="J61" s="7" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="6" t="n"/>
+      <c r="B62" s="7" t="n"/>
+      <c r="C62" s="7" t="inlineStr">
         <is>
           <t>FH-SMX05</t>
         </is>
       </c>
-      <c r="D55" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-      <c r="E55" s="7" t="inlineStr"/>
-      <c r="F55" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-      <c r="G55" s="14" t="inlineStr">
+      <c r="D62" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E62" s="7" t="inlineStr"/>
+      <c r="F62" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="G62" s="14" t="inlineStr">
         <is>
           <t>FH-2051-10</t>
         </is>
       </c>
-      <c r="H55" s="7" t="inlineStr">
+      <c r="H62" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">KG05(FH-2051-10)
 192.168.0.29
 </t>
         </is>
       </c>
-      <c r="I55" s="7" t="inlineStr"/>
-      <c r="J55" s="7" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="15" t="n"/>
-      <c r="B56" s="15" t="n"/>
-      <c r="C56" s="15" t="n"/>
-      <c r="D56" s="15" t="n"/>
-      <c r="E56" s="15" t="n"/>
-      <c r="F56" s="15" t="n"/>
-      <c r="G56" s="15" t="n"/>
-      <c r="H56" s="15" t="n"/>
-      <c r="I56" s="15" t="n"/>
-      <c r="J56" s="15" t="n"/>
+      <c r="I62" s="7" t="inlineStr"/>
+      <c r="J62" s="7" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="15" t="n"/>
+      <c r="B63" s="15" t="n"/>
+      <c r="C63" s="15" t="n"/>
+      <c r="D63" s="15" t="n"/>
+      <c r="E63" s="15" t="n"/>
+      <c r="F63" s="15" t="n"/>
+      <c r="G63" s="15" t="n"/>
+      <c r="H63" s="15" t="n"/>
+      <c r="I63" s="15" t="n"/>
+      <c r="J63" s="15" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="69">
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="I27:I30"/>
     <mergeCell ref="H22:H24"/>
     <mergeCell ref="D15:D17"/>
-    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B40:B42"/>
     <mergeCell ref="A15:A20"/>
+    <mergeCell ref="C48:C50"/>
     <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B61:B62"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A54:A55"/>
     <mergeCell ref="H25:H30"/>
-    <mergeCell ref="G41:G43"/>
     <mergeCell ref="D18:D20"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="G40:G42"/>
     <mergeCell ref="H18:H20"/>
-    <mergeCell ref="G49:G51"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="A52:A54"/>
     <mergeCell ref="H15:H17"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="D44:D46"/>
     <mergeCell ref="C25:C30"/>
+    <mergeCell ref="G52:G54"/>
     <mergeCell ref="B22:B31"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="A40:A42"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="B1:C3"/>
     <mergeCell ref="D22:D24"/>
-    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="D40:D42"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="A48:A50"/>
     <mergeCell ref="C15:C17"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="B52:B54"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D52:D54"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="D25:D30"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="C41:C43"/>
     <mergeCell ref="B15:B20"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="H49:H51"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C52:C54"/>
     <mergeCell ref="G25:G30"/>
-    <mergeCell ref="D41:D43"/>
     <mergeCell ref="G15:G17"/>
+    <mergeCell ref="A35:A38"/>
     <mergeCell ref="C22:C24"/>
-    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B35:B38"/>
     <mergeCell ref="G18:G20"/>
     <mergeCell ref="A22:A31"/>
   </mergeCells>

--- a/TRIMAZKON/excel_testing_projekt_533.xlsx
+++ b/TRIMAZKON/excel_testing_projekt_533.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ST050 - foto" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ST250 - foto" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -239,6 +241,91 @@
       <rowOff>0</rowOff>
     </from>
     <ext cx="3114675" cy="1152525"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8229600" cy="9182100"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="11268075" cy="7439025"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7734300" cy="9486900"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -611,7 +698,7 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>29.10.2024</t>
+          <t>31.10.2024</t>
         </is>
       </c>
     </row>
@@ -1258,7 +1345,7 @@
       </c>
       <c r="F25" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alternativa: DLU-140W-HI
+          <t>
 </t>
         </is>
       </c>
@@ -1298,7 +1385,7 @@
       </c>
       <c r="F26" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alternativa: 3Z4S-LE SV-3514H
+          <t>
 </t>
         </is>
       </c>
@@ -2409,4 +2496,42 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/TRIMAZKON/excel_testing_projekt_533.xlsx
+++ b/TRIMAZKON/excel_testing_projekt_533.xlsx
@@ -635,7 +635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,7 +698,7 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>31.10.2024</t>
+          <t>07.11.2024</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="J5" s="5" t="n"/>
     </row>
-    <row r="6">
+    <row r="6" ht="180" customHeight="1">
       <c r="A6" s="6" t="inlineStr">
         <is>
           <t>ST010</t>
@@ -753,10 +753,13 @@
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">1,6Mpx 
-svìtlo: LL-130W
-rl-100-w-ii
-</t>
+          <t>Kabel: FZ-VS3 5M
+Kamera - popis: FH kamera, vysokorychlostní, 0.4 Mpixel, C  
+montáž, celková uzávěrka, monochromatická
+Kabel (FZ-VS3  
+5M): příslušenství kamerových systémů, FH a FZ, kabel ke  
+standardní kameře, 5m  
+http://industrial.omron.eu/en/search?q=G639</t>
         </is>
       </c>
       <c r="E6" s="7" t="inlineStr">
@@ -764,12 +767,7 @@
           <t>3Z4S-LE SV-1614H</t>
         </is>
       </c>
-      <c r="F6" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+      <c r="F6" s="7" t="n"/>
       <c r="G6" s="8" t="inlineStr">
         <is>
           <t>FH-2051-20</t>
@@ -777,45 +775,83 @@
       </c>
       <c r="H6" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">KG01(FH-2051-20)
-192.168.0.25
-</t>
-        </is>
-      </c>
-      <c r="I6" s="7" t="inlineStr"/>
-      <c r="J6" s="7" t="inlineStr"/>
+          <t>KG01(FH-2051-20)
+FH medium speed &amp; performance  controller 
+2-core, NPN/PNP, 8 cameras,
+IP: 192.168.0.25
+Jméno: xxxxxxxxx
+Heslo: xxjjjjjjjjjjjj</t>
+        </is>
+      </c>
+      <c r="I6" s="7" t="inlineStr">
+        <is>
+          <t>FH-MT12</t>
+        </is>
+      </c>
+      <c r="J6" s="7" t="inlineStr">
+        <is>
+          <t>dotyková obrazovka kamerového systému 
+FH 12"dotyková obrazovka kamerového 
+systému FH 12"dotyková obrazovka 
+kamerového systému FH 12"dotyková 
+obrazovka kamerového systému FH 
+12"dotyková obrazovka kamerového 
+systému FH 12"dotyková obrazovka 
+kamerového systému FH 12"</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="n"/>
-      <c r="B7" s="10" t="n"/>
-      <c r="C7" s="10" t="n"/>
-      <c r="D7" s="10" t="n"/>
-      <c r="E7" s="10" t="n"/>
-      <c r="F7" s="10" t="n"/>
-      <c r="G7" s="10" t="n"/>
-      <c r="H7" s="10" t="n"/>
-      <c r="I7" s="10" t="n"/>
-      <c r="J7" s="10" t="n"/>
+      <c r="A7" s="6" t="n"/>
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="7" t="n"/>
+      <c r="D7" s="7" t="n"/>
+      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="7" t="n"/>
+      <c r="G7" s="7" t="n"/>
+      <c r="H7" s="7" t="n"/>
+      <c r="I7" s="7" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="J7" s="7" t="inlineStr">
+        <is>
+          <t>adfsss</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="A8" s="9" t="n"/>
+      <c r="B8" s="10" t="n"/>
+      <c r="C8" s="10" t="n"/>
+      <c r="D8" s="10" t="n"/>
+      <c r="E8" s="10" t="n"/>
+      <c r="F8" s="10" t="n"/>
+      <c r="G8" s="10" t="n"/>
+      <c r="H8" s="10" t="n"/>
+      <c r="I8" s="10" t="n"/>
+      <c r="J8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="135" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>ST030</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">Guma – ověřit barvu (bude modrá) původní je oranžová 
 Pozice gumy na ploše cca 50x50 mm - kamera zespodu pod sklem 
 </t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr">
+      <c r="C9" s="7" t="inlineStr">
         <is>
           <t>FH-SCX05</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr">
+      <c r="D9" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">5Mpx kamera
 Low-angle světlo (testováno s LA-120W)
@@ -823,115 +859,81 @@
 </t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr">
+      <c r="E9" s="7" t="inlineStr">
         <is>
           <t>3Z4S-LE SV-2514H</t>
         </is>
       </c>
-      <c r="F8" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-      <c r="G8" s="8" t="inlineStr">
+      <c r="F9" s="7" t="n"/>
+      <c r="G9" s="8" t="inlineStr">
         <is>
           <t>FH-2051-20</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">KG01(FH-2051-20)
-192.168.0.25
-</t>
-        </is>
-      </c>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="n"/>
-      <c r="B9" s="7" t="n"/>
-      <c r="C9" s="7" t="inlineStr"/>
-      <c r="D9" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="n"/>
-      <c r="H9" s="7" t="n"/>
-      <c r="I9" s="7" t="n"/>
-      <c r="J9" s="7" t="n"/>
+      <c r="H9" s="7" t="inlineStr">
+        <is>
+          <t>KG01(FH-2051-20)
+FH medium speed &amp; performance  controller 
+2-core, NPN/PNP, 8 cameras,
+IP: 192.168.0.25
+Jméno: xxxxxxxxx
+Heslo: xxjjjjjjjjjjjj</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr">
+        <is>
+          <t>FH-MT12</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr">
+        <is>
+          <t>dotyková obrazovka kamerového systému 
+FH 12"dotyková obrazovka kamerového 
+systému FH 12"dotyková obrazovka 
+kamerového systému FH 12"dotyková 
+obrazovka kamerového systému FH 
+12"dotyková obrazovka kamerového 
+systému FH 12"dotyková obrazovka 
+kamerového systému FH 12"</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="10" t="n"/>
-      <c r="C10" s="10" t="n"/>
-      <c r="D10" s="10" t="n"/>
-      <c r="E10" s="10" t="n"/>
-      <c r="F10" s="10" t="n"/>
-      <c r="G10" s="10" t="n"/>
-      <c r="H10" s="10" t="n"/>
-      <c r="I10" s="10" t="n"/>
-      <c r="J10" s="10" t="n"/>
+      <c r="A10" s="6" t="n"/>
+      <c r="B10" s="7" t="n"/>
+      <c r="C10" s="7" t="n"/>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
+      <c r="F10" s="7" t="n"/>
+      <c r="G10" s="7" t="n"/>
+      <c r="H10" s="7" t="n"/>
+      <c r="I10" s="7" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr">
+        <is>
+          <t>adfsss</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>ST040</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kontrola barvy senzoru – chtějí dva kusy najednou… 
-</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr">
-        <is>
-          <t>FH-SCX05</t>
-        </is>
-      </c>
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" s="7" t="n"/>
+      <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Svìtlo: DLU-140W-HI
-- v modelu
-</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr">
-        <is>
-          <t>3Z4S-LE SV-2514H</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>FH-2051-20</t>
-        </is>
-      </c>
-      <c r="H11" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">KG01(FH-2051-20)
-192.168.0.25
-</t>
-        </is>
-      </c>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="n"/>
+      <c r="G11" s="7" t="n"/>
+      <c r="H11" s="7" t="n"/>
+      <c r="I11" s="7" t="n"/>
+      <c r="J11" s="7" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n"/>
@@ -945,145 +947,161 @@
       <c r="I12" s="10" t="n"/>
       <c r="J12" s="10" t="n"/>
     </row>
-    <row r="13">
+    <row r="13" ht="135" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
+          <t>ST040</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kontrola barvy senzoru – chtějí dva kusy najednou… 
+</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr">
+        <is>
+          <t>FH-SCX05</t>
+        </is>
+      </c>
+      <c r="D13" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Svìtlo: DLU-140W-HI
+- v modelu
+</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr">
+        <is>
+          <t>3Z4S-LE SV-2514H</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="8" t="inlineStr">
+        <is>
+          <t>FH-2051-20</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr">
+        <is>
+          <t>KG01(FH-2051-20)
+FH medium speed &amp; performance  controller 
+2-core, NPN/PNP, 8 cameras,
+IP: 192.168.0.25
+Jméno: xxxxxxxxx
+Heslo: xxjjjjjjjjjjjj</t>
+        </is>
+      </c>
+      <c r="I13" s="7" t="inlineStr">
+        <is>
+          <t>FH-MT12</t>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr">
+        <is>
+          <t>dotyková obrazovka kamerového systému 
+FH 12"dotyková obrazovka kamerového 
+systému FH 12"dotyková obrazovka 
+kamerového systému FH 12"dotyková 
+obrazovka kamerového systému FH 
+12"dotyková obrazovka kamerového 
+systému FH 12"dotyková obrazovka 
+kamerového systému FH 12"</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n"/>
+      <c r="B14" s="7" t="n"/>
+      <c r="C14" s="7" t="n"/>
+      <c r="D14" s="7" t="n"/>
+      <c r="E14" s="7" t="n"/>
+      <c r="F14" s="7" t="n"/>
+      <c r="G14" s="7" t="n"/>
+      <c r="H14" s="7" t="n"/>
+      <c r="I14" s="7" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="J14" s="7" t="inlineStr">
+        <is>
+          <t>adfsss</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
+      <c r="B15" s="10" t="n"/>
+      <c r="C15" s="10" t="n"/>
+      <c r="D15" s="10" t="n"/>
+      <c r="E15" s="10" t="n"/>
+      <c r="F15" s="10" t="n"/>
+      <c r="G15" s="10" t="n"/>
+      <c r="H15" s="10" t="n"/>
+      <c r="I15" s="10" t="n"/>
+      <c r="J15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="135" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
           <t>ST050</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">Kontrola natočení kalíšku (na dně kalíšku je malá ploška) pohled kamery přes nástroj cca 10mm otvorem do 50mm hloubky
 </t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr">
+      <c r="C16" s="7" t="inlineStr">
         <is>
           <t>FH-SMX01</t>
         </is>
       </c>
-      <c r="D13" s="7" t="inlineStr">
+      <c r="D16" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">1,6 nebo 3Mpix kamera + Koaxiální světlo
 Svìtlo: CL-50
 </t>
         </is>
       </c>
-      <c r="E13" s="7" t="inlineStr">
+      <c r="E16" s="7" t="inlineStr">
         <is>
           <t>3Z4S-LE SV-5014H</t>
         </is>
       </c>
-      <c r="F13" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-      <c r="G13" s="8" t="inlineStr">
+      <c r="F16" s="7" t="n"/>
+      <c r="G16" s="8" t="inlineStr">
         <is>
           <t>FH-2051-20</t>
         </is>
       </c>
-      <c r="H13" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">KG01(FH-2051-20)
-192.168.0.25
-</t>
-        </is>
-      </c>
-      <c r="I13" s="7" t="inlineStr"/>
-      <c r="J13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
-      <c r="B14" s="10" t="n"/>
-      <c r="C14" s="10" t="n"/>
-      <c r="D14" s="10" t="n"/>
-      <c r="E14" s="10" t="n"/>
-      <c r="F14" s="10" t="n"/>
-      <c r="G14" s="10" t="n"/>
-      <c r="H14" s="10" t="n"/>
-      <c r="I14" s="10" t="n"/>
-      <c r="J14" s="10" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>ST070</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kontrola jestli modrá těsnící guma neleze ven ze senzoru.
-</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr">
-        <is>
-          <t>FH-SMX03</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2x 3Mpix  (boční pohled telecentrika, vrchní barevná kamera + Doom světlo)
-Svìtlo: LA-70W
-</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="inlineStr">
-        <is>
-          <t>3Z4S-LE SV-3514H</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr">
-        <is>
-          <t>FH-2051-10</t>
-        </is>
-      </c>
-      <c r="H15" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">KG02(FH-2051-10)
-192.168.0.26
-</t>
-        </is>
-      </c>
-      <c r="I15" s="7" t="inlineStr">
-        <is>
-          <t>konzole</t>
-        </is>
-      </c>
-      <c r="J15" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="n"/>
-      <c r="B16" s="7" t="n"/>
-      <c r="C16" s="7" t="n"/>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="7" t="n"/>
-      <c r="H16" s="7" t="n"/>
+      <c r="H16" s="7" t="inlineStr">
+        <is>
+          <t>KG01(FH-2051-20)
+FH medium speed &amp; performance  controller 
+2-core, NPN/PNP, 8 cameras,
+IP: 192.168.0.25
+Jméno: xxxxxxxxx
+Heslo: xxjjjjjjjjjjjj</t>
+        </is>
+      </c>
       <c r="I16" s="7" t="inlineStr">
         <is>
-          <t>NAS</t>
+          <t>FH-MT12</t>
         </is>
       </c>
       <c r="J16" s="7" t="inlineStr">
         <is>
-          <t>
-</t>
+          <t>dotyková obrazovka kamerového systému 
+FH 12"dotyková obrazovka kamerového 
+systému FH 12"dotyková obrazovka 
+kamerového systému FH 12"dotyková 
+obrazovka kamerového systému FH 
+12"dotyková obrazovka kamerového 
+systému FH 12"dotyková obrazovka 
+kamerového systému FH 12"</t>
         </is>
       </c>
     </row>
@@ -1092,84 +1110,77 @@
       <c r="B17" s="7" t="n"/>
       <c r="C17" s="7" t="n"/>
       <c r="D17" s="7" t="n"/>
-      <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="n"/>
+      <c r="F17" s="7" t="n"/>
       <c r="G17" s="7" t="n"/>
       <c r="H17" s="7" t="n"/>
       <c r="I17" s="7" t="inlineStr">
         <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="J17" s="7" t="inlineStr">
+        <is>
+          <t>adfsss</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="n"/>
+      <c r="B18" s="10" t="n"/>
+      <c r="C18" s="10" t="n"/>
+      <c r="D18" s="10" t="n"/>
+      <c r="E18" s="10" t="n"/>
+      <c r="F18" s="10" t="n"/>
+      <c r="G18" s="10" t="n"/>
+      <c r="H18" s="10" t="n"/>
+      <c r="I18" s="10" t="n"/>
+      <c r="J18" s="10" t="n"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>ST070</t>
+        </is>
+      </c>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kontrola jestli modrá těsnící guma neleze ven ze senzoru.
+</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr">
+        <is>
+          <t>FH-SMX03</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2x 3Mpix  (boční pohled telecentrika, vrchní barevná kamera + Doom světlo)
+Svìtlo: LA-70W
+</t>
+        </is>
+      </c>
+      <c r="E19" s="7" t="inlineStr">
+        <is>
+          <t>3Z4S-LE SV-3514H</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="n"/>
+      <c r="G19" s="7" t="inlineStr">
+        <is>
+          <t>FH-2051-10</t>
+        </is>
+      </c>
+      <c r="H19" s="7" t="inlineStr">
+        <is>
+          <t>KG02(FH-2051-10)
+IP: 192.168.0.26</t>
+        </is>
+      </c>
+      <c r="I19" s="7" t="inlineStr">
+        <is>
           <t>konzole</t>
-        </is>
-      </c>
-      <c r="J17" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="n"/>
-      <c r="B18" s="7" t="n"/>
-      <c r="C18" s="7" t="inlineStr">
-        <is>
-          <t>FH-SCX03</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2x 3Mpix  (boční pohled telecentrika, vrchní barevná kamera + Doom světlo)
-Svìtlo: BL-50W-4S
-</t>
-        </is>
-      </c>
-      <c r="E18" s="7" t="inlineStr">
-        <is>
-          <t>3Z4S-LE SV-3514H</t>
-        </is>
-      </c>
-      <c r="F18" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr">
-        <is>
-          <t>FH-2051-10</t>
-        </is>
-      </c>
-      <c r="H18" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">KG02(FH-2051-10)
-192.168.0.26
-</t>
-        </is>
-      </c>
-      <c r="I18" s="7" t="inlineStr">
-        <is>
-          <t>konzole</t>
-        </is>
-      </c>
-      <c r="J18" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="n"/>
-      <c r="B19" s="7" t="n"/>
-      <c r="C19" s="7" t="n"/>
-      <c r="D19" s="7" t="n"/>
-      <c r="E19" s="7" t="inlineStr"/>
-      <c r="F19" s="7" t="inlineStr"/>
-      <c r="G19" s="7" t="n"/>
-      <c r="H19" s="7" t="n"/>
-      <c r="I19" s="7" t="inlineStr">
-        <is>
-          <t>NAS</t>
         </is>
       </c>
       <c r="J19" s="7" t="inlineStr">
@@ -1185,56 +1196,54 @@
       <c r="C20" s="7" t="n"/>
       <c r="D20" s="7" t="n"/>
       <c r="E20" s="7" t="inlineStr"/>
-      <c r="F20" s="7" t="inlineStr"/>
+      <c r="F20" s="7" t="n"/>
       <c r="G20" s="7" t="n"/>
       <c r="H20" s="7" t="n"/>
       <c r="I20" s="7" t="inlineStr">
         <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="J20" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n"/>
+      <c r="B21" s="7" t="n"/>
+      <c r="C21" s="7" t="n"/>
+      <c r="D21" s="7" t="n"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="7" t="n"/>
+      <c r="G21" s="7" t="n"/>
+      <c r="H21" s="7" t="n"/>
+      <c r="I21" s="7" t="inlineStr">
+        <is>
           <t>konzole</t>
         </is>
       </c>
-      <c r="J20" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="9" t="n"/>
-      <c r="B21" s="10" t="n"/>
-      <c r="C21" s="10" t="n"/>
-      <c r="D21" s="10" t="n"/>
-      <c r="E21" s="10" t="n"/>
-      <c r="F21" s="10" t="n"/>
-      <c r="G21" s="10" t="n"/>
-      <c r="H21" s="10" t="n"/>
-      <c r="I21" s="10" t="n"/>
-      <c r="J21" s="10" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>ST130</t>
-        </is>
-      </c>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hledání kvality a roviny sváru pod bílým plastem…kontrolu bude specifikovat dodavatel kam. Systemu 
-Co je schopný detekovat – zatím nejsou vzorky od Valea
-Tady raději počítat s rezervou pro třetí kameru…pozor na tuto kontrolu není čas! 
-</t>
-        </is>
-      </c>
+      <c r="J21" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="30" customHeight="1">
+      <c r="A22" s="6" t="n"/>
+      <c r="B22" s="7" t="n"/>
       <c r="C22" s="7" t="inlineStr">
         <is>
-          <t>FH-SMX</t>
+          <t>FH-SCX03</t>
         </is>
       </c>
       <c r="D22" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">2x 1,6Mpx  proti sobě + IR bodove světlo
-Svìtlo: SP-27IR-850
+          <t xml:space="preserve">2x 3Mpix  (boční pohled telecentrika, vrchní barevná kamera + Doom světlo)
+Svìtlo: BL-50W-4S
 </t>
         </is>
       </c>
@@ -1243,12 +1252,7 @@
           <t>3Z4S-LE SV-3514H</t>
         </is>
       </c>
-      <c r="F22" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+      <c r="F22" s="7" t="n"/>
       <c r="G22" s="7" t="inlineStr">
         <is>
           <t>FH-2051-10</t>
@@ -1256,9 +1260,8 @@
       </c>
       <c r="H22" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">KG02(FH-2051-10)
-192.168.0.26
-</t>
+          <t>KG02(FH-2051-10)
+IP: 192.168.0.26</t>
         </is>
       </c>
       <c r="I22" s="7" t="inlineStr">
@@ -1278,17 +1281,8 @@
       <c r="B23" s="7" t="n"/>
       <c r="C23" s="7" t="n"/>
       <c r="D23" s="7" t="n"/>
-      <c r="E23" s="7" t="inlineStr">
-        <is>
-          <t>3Z4S-LE SV-5014H</t>
-        </is>
-      </c>
-      <c r="F23" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="7" t="n"/>
       <c r="G23" s="7" t="n"/>
       <c r="H23" s="7" t="n"/>
       <c r="I23" s="7" t="inlineStr">
@@ -1309,7 +1303,7 @@
       <c r="C24" s="7" t="n"/>
       <c r="D24" s="7" t="n"/>
       <c r="E24" s="7" t="inlineStr"/>
-      <c r="F24" s="7" t="inlineStr"/>
+      <c r="F24" s="7" t="n"/>
       <c r="G24" s="7" t="n"/>
       <c r="H24" s="7" t="n"/>
       <c r="I24" s="7" t="inlineStr">
@@ -1325,75 +1319,63 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="n"/>
-      <c r="B25" s="7" t="n"/>
-      <c r="C25" s="7" t="inlineStr">
+      <c r="A25" s="9" t="n"/>
+      <c r="B25" s="10" t="n"/>
+      <c r="C25" s="10" t="n"/>
+      <c r="D25" s="10" t="n"/>
+      <c r="E25" s="10" t="n"/>
+      <c r="F25" s="10" t="n"/>
+      <c r="G25" s="10" t="n"/>
+      <c r="H25" s="10" t="n"/>
+      <c r="I25" s="10" t="n"/>
+      <c r="J25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="60" customHeight="1">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>ST130</t>
+        </is>
+      </c>
+      <c r="B26" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hledání kvality a roviny sváru pod bílým plastem…kontrolu bude specifikovat dodavatel kam. Systemu 
+Co je schopný detekovat – zatím nejsou vzorky od Valea
+Tady raději počítat s rezervou pro třetí kameru…pozor na tuto kontrolu není čas! 
+</t>
+        </is>
+      </c>
+      <c r="C26" s="7" t="inlineStr">
         <is>
           <t>FH-SMX</t>
         </is>
       </c>
-      <c r="D25" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Svìtlo: SP-27IR-850
-</t>
-        </is>
-      </c>
-      <c r="E25" s="7" t="inlineStr">
-        <is>
-          <t>3Z4S-LE SV-5014H</t>
-        </is>
-      </c>
-      <c r="F25" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-      <c r="G25" s="7" t="inlineStr">
+      <c r="D26" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2x 1,6Mpx  proti sobě + IR bodove světlo
+Svìtlo: SP-27IR-850
+</t>
+        </is>
+      </c>
+      <c r="E26" s="7" t="inlineStr">
+        <is>
+          <t>3Z4S-LE SV-3514H</t>
+        </is>
+      </c>
+      <c r="F26" s="7" t="n"/>
+      <c r="G26" s="7" t="inlineStr">
         <is>
           <t>FH-2051-10</t>
         </is>
       </c>
-      <c r="H25" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">KG02(FH-2051-10)
-192.168.0.26
-</t>
-        </is>
-      </c>
-      <c r="I25" s="7" t="inlineStr">
+      <c r="H26" s="7" t="inlineStr">
+        <is>
+          <t>KG02(FH-2051-10)
+IP: 192.168.0.26</t>
+        </is>
+      </c>
+      <c r="I26" s="7" t="inlineStr">
         <is>
           <t>konzole</t>
-        </is>
-      </c>
-      <c r="J25" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="6" t="n"/>
-      <c r="B26" s="7" t="n"/>
-      <c r="C26" s="7" t="n"/>
-      <c r="D26" s="7" t="n"/>
-      <c r="E26" s="7" t="inlineStr">
-        <is>
-          <t>3Z4S-LE SV-2514H</t>
-        </is>
-      </c>
-      <c r="F26" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-      <c r="G26" s="7" t="n"/>
-      <c r="H26" s="7" t="n"/>
-      <c r="I26" s="7" t="inlineStr">
-        <is>
-          <t>NAS</t>
         </is>
       </c>
       <c r="J26" s="7" t="inlineStr">
@@ -1408,22 +1390,17 @@
       <c r="B27" s="7" t="n"/>
       <c r="C27" s="7" t="n"/>
       <c r="D27" s="7" t="n"/>
-      <c r="E27" s="11" t="inlineStr">
-        <is>
-          <t>LA-70B</t>
-        </is>
-      </c>
-      <c r="F27" s="11" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+      <c r="E27" s="7" t="inlineStr">
+        <is>
+          <t>3Z4S-LE SV-5014H</t>
+        </is>
+      </c>
+      <c r="F27" s="7" t="n"/>
       <c r="G27" s="7" t="n"/>
       <c r="H27" s="7" t="n"/>
       <c r="I27" s="7" t="inlineStr">
         <is>
-          <t>konzole</t>
+          <t>NAS</t>
         </is>
       </c>
       <c r="J27" s="7" t="inlineStr">
@@ -1438,42 +1415,64 @@
       <c r="B28" s="7" t="n"/>
       <c r="C28" s="7" t="n"/>
       <c r="D28" s="7" t="n"/>
-      <c r="E28" s="11" t="inlineStr">
-        <is>
-          <t>LA-70B</t>
-        </is>
-      </c>
-      <c r="F28" s="11" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+      <c r="E28" s="7" t="inlineStr"/>
+      <c r="F28" s="7" t="n"/>
       <c r="G28" s="7" t="n"/>
       <c r="H28" s="7" t="n"/>
-      <c r="I28" s="7" t="n"/>
-      <c r="J28" s="7" t="n"/>
-    </row>
-    <row r="29">
+      <c r="I28" s="7" t="inlineStr">
+        <is>
+          <t>konzole</t>
+        </is>
+      </c>
+      <c r="J28" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="30" customHeight="1">
       <c r="A29" s="6" t="n"/>
       <c r="B29" s="7" t="n"/>
-      <c r="C29" s="7" t="n"/>
-      <c r="D29" s="7" t="n"/>
+      <c r="C29" s="7" t="inlineStr">
+        <is>
+          <t>FH-SMX</t>
+        </is>
+      </c>
+      <c r="D29" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Svìtlo: SP-27IR-850
+</t>
+        </is>
+      </c>
       <c r="E29" s="7" t="inlineStr">
         <is>
-          <t>3Z4S-LE SV-2514H</t>
-        </is>
-      </c>
-      <c r="F29" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-      <c r="G29" s="7" t="n"/>
-      <c r="H29" s="7" t="n"/>
-      <c r="I29" s="7" t="n"/>
-      <c r="J29" s="7" t="n"/>
+          <t>3Z4S-LE SV-5014H</t>
+        </is>
+      </c>
+      <c r="F29" s="7" t="n"/>
+      <c r="G29" s="7" t="inlineStr">
+        <is>
+          <t>FH-2051-10</t>
+        </is>
+      </c>
+      <c r="H29" s="7" t="inlineStr">
+        <is>
+          <t>KG02(FH-2051-10)
+IP: 192.168.0.26</t>
+        </is>
+      </c>
+      <c r="I29" s="7" t="inlineStr">
+        <is>
+          <t>konzole</t>
+        </is>
+      </c>
+      <c r="J29" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="n"/>
@@ -1482,77 +1481,75 @@
       <c r="D30" s="7" t="n"/>
       <c r="E30" s="7" t="inlineStr">
         <is>
-          <t>3Z4S-LE SV-1614H</t>
-        </is>
-      </c>
-      <c r="F30" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+          <t>3Z4S-LE SV-2514H</t>
+        </is>
+      </c>
+      <c r="F30" s="7" t="n"/>
       <c r="G30" s="7" t="n"/>
       <c r="H30" s="7" t="n"/>
-      <c r="I30" s="7" t="n"/>
-      <c r="J30" s="7" t="n"/>
+      <c r="I30" s="7" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="J30" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="n"/>
       <c r="B31" s="7" t="n"/>
-      <c r="C31" s="7" t="inlineStr">
-        <is>
-          <t>FH-SMX05</t>
-        </is>
-      </c>
-      <c r="D31" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Svìtlo:BL-50W-4S
-</t>
-        </is>
-      </c>
-      <c r="E31" s="7" t="inlineStr">
-        <is>
-          <t>T030/9,1-85-V-BW</t>
-        </is>
-      </c>
-      <c r="F31" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+      <c r="C31" s="7" t="n"/>
+      <c r="D31" s="7" t="n"/>
+      <c r="E31" s="11" t="inlineStr">
+        <is>
+          <t>LA-70B</t>
+        </is>
+      </c>
+      <c r="F31" s="7" t="n"/>
       <c r="G31" s="7" t="n"/>
       <c r="H31" s="7" t="n"/>
-      <c r="I31" s="7" t="n"/>
-      <c r="J31" s="7" t="n"/>
+      <c r="I31" s="7" t="inlineStr">
+        <is>
+          <t>konzole</t>
+        </is>
+      </c>
+      <c r="J31" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="n"/>
-      <c r="B32" s="10" t="n"/>
-      <c r="C32" s="10" t="n"/>
-      <c r="D32" s="10" t="n"/>
-      <c r="E32" s="10" t="n"/>
-      <c r="F32" s="10" t="n"/>
-      <c r="G32" s="10" t="n"/>
-      <c r="H32" s="10" t="n"/>
-      <c r="I32" s="10" t="n"/>
-      <c r="J32" s="10" t="n"/>
+      <c r="A32" s="6" t="n"/>
+      <c r="B32" s="7" t="n"/>
+      <c r="C32" s="7" t="n"/>
+      <c r="D32" s="7" t="n"/>
+      <c r="E32" s="11" t="inlineStr">
+        <is>
+          <t>LA-70B</t>
+        </is>
+      </c>
+      <c r="F32" s="7" t="n"/>
+      <c r="G32" s="7" t="n"/>
+      <c r="H32" s="7" t="n"/>
+      <c r="I32" s="7" t="n"/>
+      <c r="J32" s="7" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="inlineStr">
-        <is>
-          <t>PRE:</t>
-        </is>
-      </c>
-      <c r="B33" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-      <c r="C33" s="7" t="inlineStr"/>
-      <c r="D33" s="7" t="inlineStr"/>
-      <c r="E33" s="7" t="n"/>
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="7" t="n"/>
+      <c r="C33" s="7" t="n"/>
+      <c r="D33" s="7" t="n"/>
+      <c r="E33" s="7" t="inlineStr">
+        <is>
+          <t>3Z4S-LE SV-2514H</t>
+        </is>
+      </c>
       <c r="F33" s="7" t="n"/>
       <c r="G33" s="7" t="n"/>
       <c r="H33" s="7" t="n"/>
@@ -1560,219 +1557,160 @@
       <c r="J33" s="7" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="9" t="n"/>
-      <c r="B34" s="10" t="n"/>
-      <c r="C34" s="10" t="n"/>
-      <c r="D34" s="10" t="n"/>
-      <c r="E34" s="10" t="n"/>
-      <c r="F34" s="10" t="n"/>
-      <c r="G34" s="10" t="n"/>
-      <c r="H34" s="10" t="n"/>
-      <c r="I34" s="10" t="n"/>
-      <c r="J34" s="10" t="n"/>
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="7" t="n"/>
+      <c r="C34" s="7" t="n"/>
+      <c r="D34" s="7" t="n"/>
+      <c r="E34" s="7" t="inlineStr">
+        <is>
+          <t>3Z4S-LE SV-1614H</t>
+        </is>
+      </c>
+      <c r="F34" s="7" t="n"/>
+      <c r="G34" s="7" t="n"/>
+      <c r="H34" s="7" t="n"/>
+      <c r="I34" s="7" t="n"/>
+      <c r="J34" s="7" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="inlineStr">
+      <c r="A35" s="6" t="n"/>
+      <c r="B35" s="7" t="n"/>
+      <c r="C35" s="7" t="inlineStr">
+        <is>
+          <t>FH-SMX05</t>
+        </is>
+      </c>
+      <c r="D35" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Svìtlo:BL-50W-4S
+</t>
+        </is>
+      </c>
+      <c r="E35" s="7" t="inlineStr">
+        <is>
+          <t>T030/9,1-85-V-BW</t>
+        </is>
+      </c>
+      <c r="F35" s="7" t="n"/>
+      <c r="G35" s="7" t="n"/>
+      <c r="H35" s="7" t="n"/>
+      <c r="I35" s="7" t="n"/>
+      <c r="J35" s="7" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="n"/>
+      <c r="B36" s="10" t="n"/>
+      <c r="C36" s="10" t="n"/>
+      <c r="D36" s="10" t="n"/>
+      <c r="E36" s="10" t="n"/>
+      <c r="F36" s="10" t="n"/>
+      <c r="G36" s="10" t="n"/>
+      <c r="H36" s="10" t="n"/>
+      <c r="I36" s="10" t="n"/>
+      <c r="J36" s="10" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="inlineStr">
+        <is>
+          <t>PRE:</t>
+        </is>
+      </c>
+      <c r="B37" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="C37" s="7" t="inlineStr"/>
+      <c r="D37" s="7" t="inlineStr"/>
+      <c r="E37" s="7" t="n"/>
+      <c r="F37" s="7" t="n"/>
+      <c r="G37" s="7" t="n"/>
+      <c r="H37" s="7" t="n"/>
+      <c r="I37" s="7" t="n"/>
+      <c r="J37" s="7" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="n"/>
+      <c r="B38" s="10" t="n"/>
+      <c r="C38" s="10" t="n"/>
+      <c r="D38" s="10" t="n"/>
+      <c r="E38" s="10" t="n"/>
+      <c r="F38" s="10" t="n"/>
+      <c r="G38" s="10" t="n"/>
+      <c r="H38" s="10" t="n"/>
+      <c r="I38" s="10" t="n"/>
+      <c r="J38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="30" customHeight="1">
+      <c r="A39" s="6" t="inlineStr">
         <is>
           <t>ST250</t>
         </is>
       </c>
-      <c r="B35" s="7" t="inlineStr">
+      <c r="B39" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">Kontrola propojovacích drátků před ustřižením z pásku (po svaření) + měření 
 </t>
         </is>
       </c>
-      <c r="C35" s="7" t="inlineStr">
+      <c r="C39" s="7" t="inlineStr">
         <is>
           <t>FH-SMX12</t>
         </is>
       </c>
-      <c r="D35" s="7" t="inlineStr">
+      <c r="D39" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">12MPix objektiv Telecentrika 
 svìtlo: LA-70B
 </t>
         </is>
       </c>
-      <c r="E35" s="7" t="inlineStr">
+      <c r="E39" s="7" t="inlineStr">
         <is>
           <t>TO42/21.4-120-V-BW</t>
         </is>
       </c>
-      <c r="F35" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Telecentrika
-</t>
-        </is>
-      </c>
-      <c r="G35" s="12" t="inlineStr">
+      <c r="F39" s="7" t="n"/>
+      <c r="G39" s="12" t="inlineStr">
         <is>
           <t>FH-2051-10</t>
         </is>
       </c>
-      <c r="H35" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">KG03(FH-2051-10)
-192.168.0.27
-</t>
-        </is>
-      </c>
-      <c r="I35" s="7" t="inlineStr">
+      <c r="H39" s="7" t="inlineStr">
+        <is>
+          <t>KG03(FH-2051-10)
+IP: 192.168.0.27</t>
+        </is>
+      </c>
+      <c r="I39" s="7" t="inlineStr">
         <is>
           <t>kamera</t>
         </is>
       </c>
-      <c r="J35" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="6" t="n"/>
-      <c r="B36" s="7" t="n"/>
-      <c r="C36" s="7" t="n"/>
-      <c r="D36" s="7" t="n"/>
-      <c r="E36" s="7" t="inlineStr">
+      <c r="J39" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n"/>
+      <c r="B40" s="7" t="n"/>
+      <c r="C40" s="7" t="n"/>
+      <c r="D40" s="7" t="n"/>
+      <c r="E40" s="7" t="inlineStr">
         <is>
           <t>3Z4S-LE SV-5014H</t>
         </is>
       </c>
-      <c r="F36" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-      <c r="G36" s="7" t="n"/>
-      <c r="H36" s="7" t="n"/>
-      <c r="I36" s="7" t="inlineStr">
+      <c r="F40" s="7" t="n"/>
+      <c r="G40" s="7" t="n"/>
+      <c r="H40" s="7" t="n"/>
+      <c r="I40" s="7" t="inlineStr">
         <is>
           <t>FH-MT12</t>
-        </is>
-      </c>
-      <c r="J36" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="6" t="n"/>
-      <c r="B37" s="7" t="n"/>
-      <c r="C37" s="7" t="n"/>
-      <c r="D37" s="7" t="n"/>
-      <c r="E37" s="11" t="inlineStr">
-        <is>
-          <t>LA-70W</t>
-        </is>
-      </c>
-      <c r="F37" s="11" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-      <c r="G37" s="7" t="n"/>
-      <c r="H37" s="7" t="n"/>
-      <c r="I37" s="7" t="inlineStr">
-        <is>
-          <t>FH-MT12</t>
-        </is>
-      </c>
-      <c r="J37" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="6" t="n"/>
-      <c r="B38" s="7" t="n"/>
-      <c r="C38" s="7" t="n"/>
-      <c r="D38" s="7" t="n"/>
-      <c r="E38" s="11" t="inlineStr">
-        <is>
-          <t>BL-50W-4S</t>
-        </is>
-      </c>
-      <c r="F38" s="11" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-      <c r="G38" s="7" t="n"/>
-      <c r="H38" s="7" t="n"/>
-      <c r="I38" s="7" t="n"/>
-      <c r="J38" s="7" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="9" t="n"/>
-      <c r="B39" s="10" t="n"/>
-      <c r="C39" s="10" t="n"/>
-      <c r="D39" s="10" t="n"/>
-      <c r="E39" s="10" t="n"/>
-      <c r="F39" s="10" t="n"/>
-      <c r="G39" s="10" t="n"/>
-      <c r="H39" s="10" t="n"/>
-      <c r="I39" s="10" t="n"/>
-      <c r="J39" s="10" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="6" t="inlineStr">
-        <is>
-          <t>ST270</t>
-        </is>
-      </c>
-      <c r="B40" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kontrola naohýbání drátku 
-</t>
-        </is>
-      </c>
-      <c r="C40" s="7" t="inlineStr">
-        <is>
-          <t>FH-SMX05</t>
-        </is>
-      </c>
-      <c r="D40" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5Mpx kamera + Telecentrika 
-svìtlo: BL-50W-4S
-</t>
-        </is>
-      </c>
-      <c r="E40" s="7" t="inlineStr">
-        <is>
-          <t>TO42/16.0-120-V-BW</t>
-        </is>
-      </c>
-      <c r="F40" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Telecentrika 
-</t>
-        </is>
-      </c>
-      <c r="G40" s="12" t="inlineStr">
-        <is>
-          <t>FH-2051-10</t>
-        </is>
-      </c>
-      <c r="H40" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">KG03(FH-2051-10)
-192.168.0.27
-</t>
-        </is>
-      </c>
-      <c r="I40" s="7" t="inlineStr">
-        <is>
-          <t>kamera</t>
         </is>
       </c>
       <c r="J40" s="7" t="inlineStr">
@@ -1787,8 +1725,12 @@
       <c r="B41" s="7" t="n"/>
       <c r="C41" s="7" t="n"/>
       <c r="D41" s="7" t="n"/>
-      <c r="E41" s="7" t="inlineStr"/>
-      <c r="F41" s="7" t="inlineStr"/>
+      <c r="E41" s="11" t="inlineStr">
+        <is>
+          <t>LA-70W</t>
+        </is>
+      </c>
+      <c r="F41" s="7" t="n"/>
       <c r="G41" s="7" t="n"/>
       <c r="H41" s="7" t="n"/>
       <c r="I41" s="7" t="inlineStr">
@@ -1808,21 +1750,16 @@
       <c r="B42" s="7" t="n"/>
       <c r="C42" s="7" t="n"/>
       <c r="D42" s="7" t="n"/>
-      <c r="E42" s="7" t="inlineStr"/>
-      <c r="F42" s="7" t="inlineStr"/>
+      <c r="E42" s="11" t="inlineStr">
+        <is>
+          <t>BL-50W-4S</t>
+        </is>
+      </c>
+      <c r="F42" s="7" t="n"/>
       <c r="G42" s="7" t="n"/>
       <c r="H42" s="7" t="n"/>
-      <c r="I42" s="7" t="inlineStr">
-        <is>
-          <t>FH-MT12</t>
-        </is>
-      </c>
-      <c r="J42" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+      <c r="I42" s="7" t="n"/>
+      <c r="J42" s="7" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="9" t="n"/>
@@ -1836,15 +1773,15 @@
       <c r="I43" s="10" t="n"/>
       <c r="J43" s="10" t="n"/>
     </row>
-    <row r="44">
+    <row r="44" ht="30" customHeight="1">
       <c r="A44" s="6" t="inlineStr">
         <is>
-          <t>ST290</t>
+          <t>ST270</t>
         </is>
       </c>
       <c r="B44" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kontrola pinů po založení do housingu 
+          <t xml:space="preserve">Kontrola naohýbání drátku 
 </t>
         </is>
       </c>
@@ -1855,8 +1792,8 @@
       </c>
       <c r="D44" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">5Mpx kamera 
-svìtlo: LA-70W
+          <t xml:space="preserve">5Mpx kamera + Telecentrika 
+svìtlo: BL-50W-4S
 </t>
         </is>
       </c>
@@ -1865,12 +1802,7 @@
           <t>TO42/16.0-120-V-BW</t>
         </is>
       </c>
-      <c r="F44" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+      <c r="F44" s="7" t="n"/>
       <c r="G44" s="12" t="inlineStr">
         <is>
           <t>FH-2051-10</t>
@@ -1878,9 +1810,8 @@
       </c>
       <c r="H44" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">KG03(FH-2051-10)
-192.168.0.27
-</t>
+          <t>KG03(FH-2051-10)
+IP: 192.168.0.27</t>
         </is>
       </c>
       <c r="I44" s="7" t="inlineStr">
@@ -1901,7 +1832,7 @@
       <c r="C45" s="7" t="n"/>
       <c r="D45" s="7" t="n"/>
       <c r="E45" s="7" t="inlineStr"/>
-      <c r="F45" s="7" t="inlineStr"/>
+      <c r="F45" s="7" t="n"/>
       <c r="G45" s="7" t="n"/>
       <c r="H45" s="7" t="n"/>
       <c r="I45" s="7" t="inlineStr">
@@ -1922,7 +1853,7 @@
       <c r="C46" s="7" t="n"/>
       <c r="D46" s="7" t="n"/>
       <c r="E46" s="7" t="inlineStr"/>
-      <c r="F46" s="7" t="inlineStr"/>
+      <c r="F46" s="7" t="n"/>
       <c r="G46" s="7" t="n"/>
       <c r="H46" s="7" t="n"/>
       <c r="I46" s="7" t="inlineStr">
@@ -1949,15 +1880,15 @@
       <c r="I47" s="10" t="n"/>
       <c r="J47" s="10" t="n"/>
     </row>
-    <row r="48">
+    <row r="48" ht="30" customHeight="1">
       <c r="A48" s="6" t="inlineStr">
         <is>
-          <t>ST310</t>
+          <t>ST290</t>
         </is>
       </c>
       <c r="B48" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kontrola pájecí pasty + měření. Drátek již bude osazen.
+          <t xml:space="preserve">Kontrola pinů po založení do housingu 
 </t>
         </is>
       </c>
@@ -1968,7 +1899,8 @@
       </c>
       <c r="D48" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">5Mpx kamera + Doom světlo + Telecentrika
+          <t xml:space="preserve">5Mpx kamera 
+svìtlo: LA-70W
 </t>
         </is>
       </c>
@@ -1977,27 +1909,21 @@
           <t>TO42/16.0-120-V-BW</t>
         </is>
       </c>
-      <c r="F48" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Telecentrika
-</t>
-        </is>
-      </c>
-      <c r="G48" s="13" t="inlineStr">
-        <is>
-          <t>FH-2051-20</t>
+      <c r="F48" s="7" t="n"/>
+      <c r="G48" s="12" t="inlineStr">
+        <is>
+          <t>FH-2051-10</t>
         </is>
       </c>
       <c r="H48" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">KG04(FH-2051-20)
-192.168.0.28
-</t>
+          <t>KG03(FH-2051-10)
+IP: 192.168.0.27</t>
         </is>
       </c>
       <c r="I48" s="7" t="inlineStr">
         <is>
-          <t>monitor</t>
+          <t>kamera</t>
         </is>
       </c>
       <c r="J48" s="7" t="inlineStr">
@@ -2013,12 +1939,12 @@
       <c r="C49" s="7" t="n"/>
       <c r="D49" s="7" t="n"/>
       <c r="E49" s="7" t="inlineStr"/>
-      <c r="F49" s="7" t="inlineStr"/>
+      <c r="F49" s="7" t="n"/>
       <c r="G49" s="7" t="n"/>
       <c r="H49" s="7" t="n"/>
       <c r="I49" s="7" t="inlineStr">
         <is>
-          <t>monitor</t>
+          <t>FH-MT12</t>
         </is>
       </c>
       <c r="J49" s="7" t="inlineStr">
@@ -2034,12 +1960,12 @@
       <c r="C50" s="7" t="n"/>
       <c r="D50" s="7" t="n"/>
       <c r="E50" s="7" t="inlineStr"/>
-      <c r="F50" s="7" t="inlineStr"/>
+      <c r="F50" s="7" t="n"/>
       <c r="G50" s="7" t="n"/>
       <c r="H50" s="7" t="n"/>
       <c r="I50" s="7" t="inlineStr">
         <is>
-          <t>NAS</t>
+          <t>FH-MT12</t>
         </is>
       </c>
       <c r="J50" s="7" t="inlineStr">
@@ -2061,42 +1987,35 @@
       <c r="I51" s="10" t="n"/>
       <c r="J51" s="10" t="n"/>
     </row>
-    <row r="52">
+    <row r="52" ht="30" customHeight="1">
       <c r="A52" s="6" t="inlineStr">
         <is>
-          <t>ST360</t>
+          <t>ST310</t>
         </is>
       </c>
       <c r="B52" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Celková kontrola zapájených drátku - pozice, měření, zapájení…. 
-Nechceme kontrolovat studené spoje ! 
+          <t xml:space="preserve">Kontrola pájecí pasty + měření. Drátek již bude osazen.
 </t>
         </is>
       </c>
       <c r="C52" s="7" t="inlineStr">
         <is>
-          <t>FH-SCX12</t>
+          <t>FH-SMX05</t>
         </is>
       </c>
       <c r="D52" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">12MPix barevná
-svìtlo: FL-MD90MC
+          <t xml:space="preserve">5Mpx kamera + Doom světlo + Telecentrika
 </t>
         </is>
       </c>
       <c r="E52" s="7" t="inlineStr">
         <is>
-          <t>3Z4S-LE SV-3514H</t>
-        </is>
-      </c>
-      <c r="F52" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+          <t>TO42/16.0-120-V-BW</t>
+        </is>
+      </c>
+      <c r="F52" s="7" t="n"/>
       <c r="G52" s="13" t="inlineStr">
         <is>
           <t>FH-2051-20</t>
@@ -2104,9 +2023,8 @@
       </c>
       <c r="H52" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">KG04(FH-2051-20)
-192.168.0.28
-</t>
+          <t>KG04(FH-2051-20)
+IP: 192.168.0.28</t>
         </is>
       </c>
       <c r="I52" s="7" t="inlineStr">
@@ -2127,7 +2045,7 @@
       <c r="C53" s="7" t="n"/>
       <c r="D53" s="7" t="n"/>
       <c r="E53" s="7" t="inlineStr"/>
-      <c r="F53" s="7" t="inlineStr"/>
+      <c r="F53" s="7" t="n"/>
       <c r="G53" s="7" t="n"/>
       <c r="H53" s="7" t="n"/>
       <c r="I53" s="7" t="inlineStr">
@@ -2148,7 +2066,7 @@
       <c r="C54" s="7" t="n"/>
       <c r="D54" s="7" t="n"/>
       <c r="E54" s="7" t="inlineStr"/>
-      <c r="F54" s="7" t="inlineStr"/>
+      <c r="F54" s="7" t="n"/>
       <c r="G54" s="7" t="n"/>
       <c r="H54" s="7" t="n"/>
       <c r="I54" s="7" t="inlineStr">
@@ -2175,27 +2093,34 @@
       <c r="I55" s="10" t="n"/>
       <c r="J55" s="10" t="n"/>
     </row>
-    <row r="56">
+    <row r="56" ht="120" customHeight="1">
       <c r="A56" s="6" t="inlineStr">
         <is>
-          <t>ST410</t>
+          <t>ST360</t>
         </is>
       </c>
       <c r="B56" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pozice PCB 
+          <t xml:space="preserve">Celková kontrola zapájených drátku - pozice, měření, zapájení…. 
+Nechceme kontrolovat studené spoje ! 
+fgsd
+f
+sf
+s
+f
+sfdfs
 </t>
         </is>
       </c>
       <c r="C56" s="7" t="inlineStr">
         <is>
-          <t>FH-SMX05</t>
+          <t>FH-SCX12</t>
         </is>
       </c>
       <c r="D56" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">5Mpx kamera + Doom světlo 
-svìtlo: L-120W-HI
+          <t xml:space="preserve">12MPix barevná
+svìtlo: FL-MD90MC
 </t>
         </is>
       </c>
@@ -2204,12 +2129,7 @@
           <t>3Z4S-LE SV-3514H</t>
         </is>
       </c>
-      <c r="F56" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+      <c r="F56" s="7" t="n"/>
       <c r="G56" s="13" t="inlineStr">
         <is>
           <t>FH-2051-20</t>
@@ -2217,9 +2137,8 @@
       </c>
       <c r="H56" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">KG04(FH-2051-20)
-192.168.0.28
-</t>
+          <t>KG04(FH-2051-20)
+IP: 192.168.0.28</t>
         </is>
       </c>
       <c r="I56" s="7" t="inlineStr">
@@ -2239,17 +2158,8 @@
       <c r="B57" s="7" t="n"/>
       <c r="C57" s="7" t="n"/>
       <c r="D57" s="7" t="n"/>
-      <c r="E57" s="11" t="inlineStr">
-        <is>
-          <t>BL-50W-4S</t>
-        </is>
-      </c>
-      <c r="F57" s="11" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+      <c r="E57" s="7" t="inlineStr"/>
+      <c r="F57" s="7" t="n"/>
       <c r="G57" s="7" t="n"/>
       <c r="H57" s="7" t="n"/>
       <c r="I57" s="7" t="inlineStr">
@@ -2270,12 +2180,7 @@
       <c r="C58" s="7" t="n"/>
       <c r="D58" s="7" t="n"/>
       <c r="E58" s="7" t="inlineStr"/>
-      <c r="F58" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5465
-</t>
-        </is>
-      </c>
+      <c r="F58" s="7" t="n"/>
       <c r="G58" s="7" t="n"/>
       <c r="H58" s="7" t="n"/>
       <c r="I58" s="7" t="inlineStr">
@@ -2291,207 +2196,331 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="6" t="n"/>
-      <c r="B59" s="7" t="n"/>
-      <c r="C59" s="7" t="inlineStr">
-        <is>
-          <t>FH-SCX03</t>
-        </is>
-      </c>
-      <c r="D59" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">564156
-</t>
-        </is>
-      </c>
-      <c r="E59" s="7" t="inlineStr"/>
-      <c r="F59" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-      <c r="G59" s="7" t="n"/>
-      <c r="H59" s="7" t="n"/>
-      <c r="I59" s="7" t="n"/>
-      <c r="J59" s="7" t="n"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="9" t="n"/>
-      <c r="B60" s="10" t="n"/>
-      <c r="C60" s="10" t="n"/>
-      <c r="D60" s="10" t="n"/>
-      <c r="E60" s="10" t="n"/>
-      <c r="F60" s="10" t="n"/>
-      <c r="G60" s="10" t="n"/>
-      <c r="H60" s="10" t="n"/>
-      <c r="I60" s="10" t="n"/>
-      <c r="J60" s="10" t="n"/>
+      <c r="A59" s="9" t="n"/>
+      <c r="B59" s="10" t="n"/>
+      <c r="C59" s="10" t="n"/>
+      <c r="D59" s="10" t="n"/>
+      <c r="E59" s="10" t="n"/>
+      <c r="F59" s="10" t="n"/>
+      <c r="G59" s="10" t="n"/>
+      <c r="H59" s="10" t="n"/>
+      <c r="I59" s="10" t="n"/>
+      <c r="J59" s="10" t="n"/>
+    </row>
+    <row r="60" ht="45" customHeight="1">
+      <c r="A60" s="6" t="inlineStr">
+        <is>
+          <t>ST410</t>
+        </is>
+      </c>
+      <c r="B60" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pozice PCB 
+</t>
+        </is>
+      </c>
+      <c r="C60" s="7" t="inlineStr">
+        <is>
+          <t>FH-SMX05</t>
+        </is>
+      </c>
+      <c r="D60" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5Mpx kamera + Doom světlo 
+svìtlo: L-120W-HI
+</t>
+        </is>
+      </c>
+      <c r="E60" s="7" t="inlineStr">
+        <is>
+          <t>3Z4S-LE SV-3514H</t>
+        </is>
+      </c>
+      <c r="F60" s="7" t="n"/>
+      <c r="G60" s="13" t="inlineStr">
+        <is>
+          <t>FH-2051-20</t>
+        </is>
+      </c>
+      <c r="H60" s="7" t="inlineStr">
+        <is>
+          <t>KG04(FH-2051-20)
+IP: 192.168.0.28</t>
+        </is>
+      </c>
+      <c r="I60" s="7" t="inlineStr">
+        <is>
+          <t>monitor</t>
+        </is>
+      </c>
+      <c r="J60" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="6" t="inlineStr">
-        <is>
-          <t>ST395</t>
-        </is>
-      </c>
-      <c r="B61" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">?????
-</t>
-        </is>
-      </c>
-      <c r="C61" s="7" t="inlineStr">
-        <is>
-          <t>FH-SMX05</t>
-        </is>
-      </c>
-      <c r="D61" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-      <c r="E61" s="7" t="inlineStr"/>
-      <c r="F61" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-      <c r="G61" s="14" t="inlineStr">
-        <is>
-          <t>FH-2051-10</t>
-        </is>
-      </c>
-      <c r="H61" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">KG05(FH-2051-10)
-192.168.0.29
-</t>
-        </is>
-      </c>
-      <c r="I61" s="7" t="inlineStr"/>
-      <c r="J61" s="7" t="inlineStr"/>
+      <c r="A61" s="6" t="n"/>
+      <c r="B61" s="7" t="n"/>
+      <c r="C61" s="7" t="n"/>
+      <c r="D61" s="7" t="n"/>
+      <c r="E61" s="11" t="inlineStr">
+        <is>
+          <t>BL-50W-4S</t>
+        </is>
+      </c>
+      <c r="F61" s="7" t="n"/>
+      <c r="G61" s="7" t="n"/>
+      <c r="H61" s="7" t="n"/>
+      <c r="I61" s="7" t="inlineStr">
+        <is>
+          <t>monitor</t>
+        </is>
+      </c>
+      <c r="J61" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="6" t="n"/>
       <c r="B62" s="7" t="n"/>
-      <c r="C62" s="7" t="inlineStr">
+      <c r="C62" s="7" t="n"/>
+      <c r="D62" s="7" t="n"/>
+      <c r="E62" s="7" t="inlineStr"/>
+      <c r="F62" s="7" t="n"/>
+      <c r="G62" s="7" t="n"/>
+      <c r="H62" s="7" t="n"/>
+      <c r="I62" s="7" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="J62" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="n"/>
+      <c r="B63" s="7" t="n"/>
+      <c r="C63" s="7" t="inlineStr">
+        <is>
+          <t>FH-SCX03</t>
+        </is>
+      </c>
+      <c r="D63" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">564156
+</t>
+        </is>
+      </c>
+      <c r="E63" s="7" t="inlineStr"/>
+      <c r="F63" s="7" t="n"/>
+      <c r="G63" s="7" t="n"/>
+      <c r="H63" s="7" t="n"/>
+      <c r="I63" s="7" t="n"/>
+      <c r="J63" s="7" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="n"/>
+      <c r="B64" s="10" t="n"/>
+      <c r="C64" s="10" t="n"/>
+      <c r="D64" s="10" t="n"/>
+      <c r="E64" s="10" t="n"/>
+      <c r="F64" s="10" t="n"/>
+      <c r="G64" s="10" t="n"/>
+      <c r="H64" s="10" t="n"/>
+      <c r="I64" s="10" t="n"/>
+      <c r="J64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="30" customHeight="1">
+      <c r="A65" s="6" t="inlineStr">
+        <is>
+          <t>ST395</t>
+        </is>
+      </c>
+      <c r="B65" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">?????
+</t>
+        </is>
+      </c>
+      <c r="C65" s="7" t="inlineStr">
         <is>
           <t>FH-SMX05</t>
         </is>
       </c>
-      <c r="D62" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-      <c r="E62" s="7" t="inlineStr"/>
-      <c r="F62" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-      <c r="G62" s="14" t="inlineStr">
+      <c r="D65" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E65" s="7" t="inlineStr"/>
+      <c r="F65" s="7" t="n"/>
+      <c r="G65" s="14" t="inlineStr">
         <is>
           <t>FH-2051-10</t>
         </is>
       </c>
-      <c r="H62" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">KG05(FH-2051-10)
-192.168.0.29
-</t>
-        </is>
-      </c>
-      <c r="I62" s="7" t="inlineStr"/>
-      <c r="J62" s="7" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="15" t="n"/>
-      <c r="B63" s="15" t="n"/>
-      <c r="C63" s="15" t="n"/>
-      <c r="D63" s="15" t="n"/>
-      <c r="E63" s="15" t="n"/>
-      <c r="F63" s="15" t="n"/>
-      <c r="G63" s="15" t="n"/>
-      <c r="H63" s="15" t="n"/>
-      <c r="I63" s="15" t="n"/>
-      <c r="J63" s="15" t="n"/>
+      <c r="H65" s="7" t="inlineStr">
+        <is>
+          <t>KG05(FH-2051-10)
+IP: 192.168.0.29</t>
+        </is>
+      </c>
+      <c r="I65" s="7" t="inlineStr"/>
+      <c r="J65" s="7" t="inlineStr"/>
+    </row>
+    <row r="66" ht="30" customHeight="1">
+      <c r="A66" s="6" t="n"/>
+      <c r="B66" s="7" t="n"/>
+      <c r="C66" s="7" t="inlineStr">
+        <is>
+          <t>FH-SMX05</t>
+        </is>
+      </c>
+      <c r="D66" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E66" s="7" t="inlineStr"/>
+      <c r="F66" s="7" t="n"/>
+      <c r="G66" s="14" t="inlineStr">
+        <is>
+          <t>FH-2051-10</t>
+        </is>
+      </c>
+      <c r="H66" s="7" t="inlineStr">
+        <is>
+          <t>KG05(FH-2051-10)
+IP: 192.168.0.29</t>
+        </is>
+      </c>
+      <c r="I66" s="7" t="inlineStr"/>
+      <c r="J66" s="7" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="15" t="n"/>
+      <c r="B67" s="15" t="n"/>
+      <c r="C67" s="15" t="n"/>
+      <c r="D67" s="15" t="n"/>
+      <c r="E67" s="15" t="n"/>
+      <c r="F67" s="15" t="n"/>
+      <c r="G67" s="15" t="n"/>
+      <c r="H67" s="15" t="n"/>
+      <c r="I67" s="15" t="n"/>
+      <c r="J67" s="15" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="A61:A62"/>
+  <mergeCells count="99">
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="B26:B35"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="C22:C24"/>
     <mergeCell ref="D56:D58"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="G39:G42"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="G13:G14"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="H25:H30"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D29:D34"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="H29:H34"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A44:A46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="B22:B31"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="H16:H17"/>
     <mergeCell ref="B52:B54"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G29:G34"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B65:B66"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D52:D54"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A26:A35"/>
     <mergeCell ref="H56:H58"/>
-    <mergeCell ref="H52:H54"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="G25:G30"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="B9:B11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/TRIMAZKON/excel_testing_projekt_533.xlsx
+++ b/TRIMAZKON/excel_testing_projekt_533.xlsx
@@ -241,91 +241,6 @@
       <rowOff>0</rowOff>
     </from>
     <ext cx="3114675" cy="1152525"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="8229600" cy="9182100"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>19</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="11268075" cy="7439025"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7734300" cy="9486900"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -698,7 +613,7 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>07.11.2024</t>
+          <t>13.11.2024</t>
         </is>
       </c>
     </row>
@@ -734,7 +649,7 @@
       </c>
       <c r="J5" s="5" t="n"/>
     </row>
-    <row r="6" ht="180" customHeight="1">
+    <row r="6" ht="315" customHeight="1">
       <c r="A6" s="6" t="inlineStr">
         <is>
           <t>ST010</t>
@@ -753,13 +668,15 @@
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t>Kabel: FZ-VS3 5M
-Kamera - popis: FH kamera, vysokorychlostní, 0.4 Mpixel, C  
-montáž, celková uzávěrka, monochromatická
-Kabel (FZ-VS3  
-5M): příslušenství kamerových systémů, FH a FZ, kabel ke  
-standardní kameře, 5m  
-http://industrial.omron.eu/en/search?q=G639</t>
+          <t xml:space="preserve">Kamera - popis: FH kamera, 
+vysokorychlostní, 0.4 Mpixel, C montáž, 
+celková uzávěrka, monochromatická
+Kabel (FZ-VS3 5M): příslušenství 
+kamerových systémů, FH a FZ, kabel ke 
+standardní kameře, 
+5m
+http://industrial.omron.eu/en/search?q=G639
+</t>
         </is>
       </c>
       <c r="E6" s="7" t="inlineStr">
@@ -767,7 +684,27 @@
           <t>3Z4S-LE SV-1614H</t>
         </is>
       </c>
-      <c r="F6" s="7" t="n"/>
+      <c r="F6" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alternativa: 3Z4S-LE SV-10028H
+Objektiv - popis: Příslušenství pro 
+kamery, čočky, C montáž, pro kamery 
+FZ-S_2M, FZ-S_5M3, FH-S_05R, FH-S_X05, 
+FHV7H, ohnisková vzdálenost 12 mm, 
+nejmenší vzdálenost 100mm, světelnost 
+1,4 až 16, maximální kompatiblní CCD čip 
+2/3" nebo 1"
+Alternativní - popis: 
+Příslušenství pro kamery, čočky, C 
+montáž, pro kamery FZ-S_2M, FZ-S_5M3, 
+FH-S_05R, FH-S_X05, FHV7H, ohnisková 
+vzdálenost 75 mm, nejmenší vzdálenost 
+1200mm, světelnost 2,5 až zavřeno, 
+maximální kompatiblní CCD čip 2/3" nebo 
+1", revize 1
+</t>
+        </is>
+      </c>
       <c r="G6" s="8" t="inlineStr">
         <is>
           <t>FH-2051-20</t>
@@ -864,7 +801,12 @@
           <t>3Z4S-LE SV-2514H</t>
         </is>
       </c>
-      <c r="F9" s="7" t="n"/>
+      <c r="F9" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
       <c r="G9" s="8" t="inlineStr">
         <is>
           <t>FH-2051-20</t>
@@ -929,7 +871,12 @@
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="n"/>
+      <c r="F11" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
       <c r="G11" s="7" t="n"/>
       <c r="H11" s="7" t="n"/>
       <c r="I11" s="7" t="n"/>
@@ -976,7 +923,12 @@
           <t>3Z4S-LE SV-2514H</t>
         </is>
       </c>
-      <c r="F13" s="7" t="n"/>
+      <c r="F13" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr">
         <is>
           <t>FH-2051-20</t>
@@ -1071,7 +1023,12 @@
           <t>3Z4S-LE SV-5014H</t>
         </is>
       </c>
-      <c r="F16" s="7" t="n"/>
+      <c r="F16" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
       <c r="G16" s="8" t="inlineStr">
         <is>
           <t>FH-2051-20</t>
@@ -1137,7 +1094,7 @@
       <c r="I18" s="10" t="n"/>
       <c r="J18" s="10" t="n"/>
     </row>
-    <row r="19" ht="60" customHeight="1">
+    <row r="19" ht="135" customHeight="1">
       <c r="A19" s="6" t="inlineStr">
         <is>
           <t>ST070</t>
@@ -1166,7 +1123,12 @@
           <t>3Z4S-LE SV-3514H</t>
         </is>
       </c>
-      <c r="F19" s="7" t="n"/>
+      <c r="F19" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
       <c r="G19" s="7" t="inlineStr">
         <is>
           <t>FH-2051-10</t>
@@ -1196,7 +1158,7 @@
       <c r="C20" s="7" t="n"/>
       <c r="D20" s="7" t="n"/>
       <c r="E20" s="7" t="inlineStr"/>
-      <c r="F20" s="7" t="n"/>
+      <c r="F20" s="7" t="inlineStr"/>
       <c r="G20" s="7" t="n"/>
       <c r="H20" s="7" t="n"/>
       <c r="I20" s="7" t="inlineStr">
@@ -1217,7 +1179,7 @@
       <c r="C21" s="7" t="n"/>
       <c r="D21" s="7" t="n"/>
       <c r="E21" s="7" t="inlineStr"/>
-      <c r="F21" s="7" t="n"/>
+      <c r="F21" s="7" t="inlineStr"/>
       <c r="G21" s="7" t="n"/>
       <c r="H21" s="7" t="n"/>
       <c r="I21" s="7" t="inlineStr">
@@ -1232,7 +1194,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="30" customHeight="1">
+    <row r="22" ht="90" customHeight="1">
       <c r="A22" s="6" t="n"/>
       <c r="B22" s="7" t="n"/>
       <c r="C22" s="7" t="inlineStr">
@@ -1252,7 +1214,12 @@
           <t>3Z4S-LE SV-3514H</t>
         </is>
       </c>
-      <c r="F22" s="7" t="n"/>
+      <c r="F22" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
       <c r="G22" s="7" t="inlineStr">
         <is>
           <t>FH-2051-10</t>
@@ -1282,7 +1249,7 @@
       <c r="C23" s="7" t="n"/>
       <c r="D23" s="7" t="n"/>
       <c r="E23" s="7" t="inlineStr"/>
-      <c r="F23" s="7" t="n"/>
+      <c r="F23" s="7" t="inlineStr"/>
       <c r="G23" s="7" t="n"/>
       <c r="H23" s="7" t="n"/>
       <c r="I23" s="7" t="inlineStr">
@@ -1303,7 +1270,7 @@
       <c r="C24" s="7" t="n"/>
       <c r="D24" s="7" t="n"/>
       <c r="E24" s="7" t="inlineStr"/>
-      <c r="F24" s="7" t="n"/>
+      <c r="F24" s="7" t="inlineStr"/>
       <c r="G24" s="7" t="n"/>
       <c r="H24" s="7" t="n"/>
       <c r="I24" s="7" t="inlineStr">
@@ -1330,7 +1297,7 @@
       <c r="I25" s="10" t="n"/>
       <c r="J25" s="10" t="n"/>
     </row>
-    <row r="26" ht="60" customHeight="1">
+    <row r="26" ht="420" customHeight="1">
       <c r="A26" s="6" t="inlineStr">
         <is>
           <t>ST130</t>
@@ -1361,7 +1328,12 @@
           <t>3Z4S-LE SV-3514H</t>
         </is>
       </c>
-      <c r="F26" s="7" t="n"/>
+      <c r="F26" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
       <c r="G26" s="7" t="inlineStr">
         <is>
           <t>FH-2051-10</t>
@@ -1395,7 +1367,12 @@
           <t>3Z4S-LE SV-5014H</t>
         </is>
       </c>
-      <c r="F27" s="7" t="n"/>
+      <c r="F27" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
       <c r="G27" s="7" t="n"/>
       <c r="H27" s="7" t="n"/>
       <c r="I27" s="7" t="inlineStr">
@@ -1416,7 +1393,7 @@
       <c r="C28" s="7" t="n"/>
       <c r="D28" s="7" t="n"/>
       <c r="E28" s="7" t="inlineStr"/>
-      <c r="F28" s="7" t="n"/>
+      <c r="F28" s="7" t="inlineStr"/>
       <c r="G28" s="7" t="n"/>
       <c r="H28" s="7" t="n"/>
       <c r="I28" s="7" t="inlineStr">
@@ -1431,7 +1408,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="30" customHeight="1">
+    <row r="29" ht="90" customHeight="1">
       <c r="A29" s="6" t="n"/>
       <c r="B29" s="7" t="n"/>
       <c r="C29" s="7" t="inlineStr">
@@ -1441,7 +1418,11 @@
       </c>
       <c r="D29" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Svìtlo: SP-27IR-850
+          <t xml:space="preserve">Kamera - popis: Kamera FH 3D, FOV 
+400x300x200 mm, WD 500 mm, 24 V
+Kabel 
+(FZ-VSBX 5M): Ultra bend resistant 
+camera cable, 5 m
 </t>
         </is>
       </c>
@@ -1450,7 +1431,12 @@
           <t>3Z4S-LE SV-5014H</t>
         </is>
       </c>
-      <c r="F29" s="7" t="n"/>
+      <c r="F29" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
       <c r="G29" s="7" t="inlineStr">
         <is>
           <t>FH-2051-10</t>
@@ -1484,7 +1470,12 @@
           <t>3Z4S-LE SV-2514H</t>
         </is>
       </c>
-      <c r="F30" s="7" t="n"/>
+      <c r="F30" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
       <c r="G30" s="7" t="n"/>
       <c r="H30" s="7" t="n"/>
       <c r="I30" s="7" t="inlineStr">
@@ -1509,7 +1500,12 @@
           <t>LA-70B</t>
         </is>
       </c>
-      <c r="F31" s="7" t="n"/>
+      <c r="F31" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
       <c r="G31" s="7" t="n"/>
       <c r="H31" s="7" t="n"/>
       <c r="I31" s="7" t="inlineStr">
@@ -1534,7 +1530,13 @@
           <t>LA-70B</t>
         </is>
       </c>
-      <c r="F32" s="7" t="n"/>
+      <c r="F32" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alternativa: FL-MD90MC
+sfffffffffffin spection_description sfffffffffffin spection_description sfffffffffffin spection_description sfffffffffffin spection_description sfffffffffffin spection_description sfffffffffffin spection_description sfffffffffffin spection_description sfffffffffffin spection_description sfffffffffffin spection_description sfffffffffffin spection_description sfffffffffffin spection_description sfffffffffffin spection_description sfffffffffffin spection_description sfffffffffffin spection_description sfffffffffffin spection_description sfffffffffffin spection_description 
+</t>
+        </is>
+      </c>
       <c r="G32" s="7" t="n"/>
       <c r="H32" s="7" t="n"/>
       <c r="I32" s="7" t="n"/>
@@ -1550,7 +1552,12 @@
           <t>3Z4S-LE SV-2514H</t>
         </is>
       </c>
-      <c r="F33" s="7" t="n"/>
+      <c r="F33" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
       <c r="G33" s="7" t="n"/>
       <c r="H33" s="7" t="n"/>
       <c r="I33" s="7" t="n"/>
@@ -1566,7 +1573,18 @@
           <t>3Z4S-LE SV-1614H</t>
         </is>
       </c>
-      <c r="F34" s="7" t="n"/>
+      <c r="F34" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Objektiv - popis: Příslušenství pro 
+kamery, čočky, C montáž, pro kamery 
+FZ-S_2M, FZ-S_5M3, FH-S_05R, FH-S_X05, 
+FHV7H, ohnisková vzdálenost 12 mm, 
+nejmenší vzdálenost 100mm, světelnost 
+1,4 až 16, maximální kompatiblní CCD čip 
+2/3" nebo 1"
+</t>
+        </is>
+      </c>
       <c r="G34" s="7" t="n"/>
       <c r="H34" s="7" t="n"/>
       <c r="I34" s="7" t="n"/>
@@ -1591,7 +1609,12 @@
           <t>T030/9,1-85-V-BW</t>
         </is>
       </c>
-      <c r="F35" s="7" t="n"/>
+      <c r="F35" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
       <c r="G35" s="7" t="n"/>
       <c r="H35" s="7" t="n"/>
       <c r="I35" s="7" t="n"/>
@@ -1609,7 +1632,7 @@
       <c r="I36" s="10" t="n"/>
       <c r="J36" s="10" t="n"/>
     </row>
-    <row r="37">
+    <row r="37" ht="30" customHeight="1">
       <c r="A37" s="6" t="inlineStr">
         <is>
           <t>PRE:</t>
@@ -1642,7 +1665,7 @@
       <c r="I38" s="10" t="n"/>
       <c r="J38" s="10" t="n"/>
     </row>
-    <row r="39" ht="30" customHeight="1">
+    <row r="39" ht="120" customHeight="1">
       <c r="A39" s="6" t="inlineStr">
         <is>
           <t>ST250</t>
@@ -1671,7 +1694,12 @@
           <t>TO42/21.4-120-V-BW</t>
         </is>
       </c>
-      <c r="F39" s="7" t="n"/>
+      <c r="F39" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Telecentrika
+</t>
+        </is>
+      </c>
       <c r="G39" s="12" t="inlineStr">
         <is>
           <t>FH-2051-10</t>
@@ -1705,7 +1733,12 @@
           <t>3Z4S-LE SV-5014H</t>
         </is>
       </c>
-      <c r="F40" s="7" t="n"/>
+      <c r="F40" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
       <c r="G40" s="7" t="n"/>
       <c r="H40" s="7" t="n"/>
       <c r="I40" s="7" t="inlineStr">
@@ -1730,7 +1763,12 @@
           <t>LA-70W</t>
         </is>
       </c>
-      <c r="F41" s="7" t="n"/>
+      <c r="F41" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
       <c r="G41" s="7" t="n"/>
       <c r="H41" s="7" t="n"/>
       <c r="I41" s="7" t="inlineStr">
@@ -1755,7 +1793,12 @@
           <t>BL-50W-4S</t>
         </is>
       </c>
-      <c r="F42" s="7" t="n"/>
+      <c r="F42" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
       <c r="G42" s="7" t="n"/>
       <c r="H42" s="7" t="n"/>
       <c r="I42" s="7" t="n"/>
@@ -1773,7 +1816,7 @@
       <c r="I43" s="10" t="n"/>
       <c r="J43" s="10" t="n"/>
     </row>
-    <row r="44" ht="30" customHeight="1">
+    <row r="44" ht="90" customHeight="1">
       <c r="A44" s="6" t="inlineStr">
         <is>
           <t>ST270</t>
@@ -1802,7 +1845,12 @@
           <t>TO42/16.0-120-V-BW</t>
         </is>
       </c>
-      <c r="F44" s="7" t="n"/>
+      <c r="F44" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Telecentrika 
+</t>
+        </is>
+      </c>
       <c r="G44" s="12" t="inlineStr">
         <is>
           <t>FH-2051-10</t>
@@ -1832,7 +1880,7 @@
       <c r="C45" s="7" t="n"/>
       <c r="D45" s="7" t="n"/>
       <c r="E45" s="7" t="inlineStr"/>
-      <c r="F45" s="7" t="n"/>
+      <c r="F45" s="7" t="inlineStr"/>
       <c r="G45" s="7" t="n"/>
       <c r="H45" s="7" t="n"/>
       <c r="I45" s="7" t="inlineStr">
@@ -1853,7 +1901,7 @@
       <c r="C46" s="7" t="n"/>
       <c r="D46" s="7" t="n"/>
       <c r="E46" s="7" t="inlineStr"/>
-      <c r="F46" s="7" t="n"/>
+      <c r="F46" s="7" t="inlineStr"/>
       <c r="G46" s="7" t="n"/>
       <c r="H46" s="7" t="n"/>
       <c r="I46" s="7" t="inlineStr">
@@ -1880,7 +1928,7 @@
       <c r="I47" s="10" t="n"/>
       <c r="J47" s="10" t="n"/>
     </row>
-    <row r="48" ht="30" customHeight="1">
+    <row r="48" ht="90" customHeight="1">
       <c r="A48" s="6" t="inlineStr">
         <is>
           <t>ST290</t>
@@ -1909,7 +1957,12 @@
           <t>TO42/16.0-120-V-BW</t>
         </is>
       </c>
-      <c r="F48" s="7" t="n"/>
+      <c r="F48" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
       <c r="G48" s="12" t="inlineStr">
         <is>
           <t>FH-2051-10</t>
@@ -1939,7 +1992,7 @@
       <c r="C49" s="7" t="n"/>
       <c r="D49" s="7" t="n"/>
       <c r="E49" s="7" t="inlineStr"/>
-      <c r="F49" s="7" t="n"/>
+      <c r="F49" s="7" t="inlineStr"/>
       <c r="G49" s="7" t="n"/>
       <c r="H49" s="7" t="n"/>
       <c r="I49" s="7" t="inlineStr">
@@ -1960,7 +2013,7 @@
       <c r="C50" s="7" t="n"/>
       <c r="D50" s="7" t="n"/>
       <c r="E50" s="7" t="inlineStr"/>
-      <c r="F50" s="7" t="n"/>
+      <c r="F50" s="7" t="inlineStr"/>
       <c r="G50" s="7" t="n"/>
       <c r="H50" s="7" t="n"/>
       <c r="I50" s="7" t="inlineStr">
@@ -1987,7 +2040,7 @@
       <c r="I51" s="10" t="n"/>
       <c r="J51" s="10" t="n"/>
     </row>
-    <row r="52" ht="30" customHeight="1">
+    <row r="52" ht="90" customHeight="1">
       <c r="A52" s="6" t="inlineStr">
         <is>
           <t>ST310</t>
@@ -2015,7 +2068,12 @@
           <t>TO42/16.0-120-V-BW</t>
         </is>
       </c>
-      <c r="F52" s="7" t="n"/>
+      <c r="F52" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Telecentrika
+</t>
+        </is>
+      </c>
       <c r="G52" s="13" t="inlineStr">
         <is>
           <t>FH-2051-20</t>
@@ -2045,7 +2103,7 @@
       <c r="C53" s="7" t="n"/>
       <c r="D53" s="7" t="n"/>
       <c r="E53" s="7" t="inlineStr"/>
-      <c r="F53" s="7" t="n"/>
+      <c r="F53" s="7" t="inlineStr"/>
       <c r="G53" s="7" t="n"/>
       <c r="H53" s="7" t="n"/>
       <c r="I53" s="7" t="inlineStr">
@@ -2066,7 +2124,7 @@
       <c r="C54" s="7" t="n"/>
       <c r="D54" s="7" t="n"/>
       <c r="E54" s="7" t="inlineStr"/>
-      <c r="F54" s="7" t="n"/>
+      <c r="F54" s="7" t="inlineStr"/>
       <c r="G54" s="7" t="n"/>
       <c r="H54" s="7" t="n"/>
       <c r="I54" s="7" t="inlineStr">
@@ -2093,7 +2151,7 @@
       <c r="I55" s="10" t="n"/>
       <c r="J55" s="10" t="n"/>
     </row>
-    <row r="56" ht="120" customHeight="1">
+    <row r="56" ht="135" customHeight="1">
       <c r="A56" s="6" t="inlineStr">
         <is>
           <t>ST360</t>
@@ -2129,7 +2187,12 @@
           <t>3Z4S-LE SV-3514H</t>
         </is>
       </c>
-      <c r="F56" s="7" t="n"/>
+      <c r="F56" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
       <c r="G56" s="13" t="inlineStr">
         <is>
           <t>FH-2051-20</t>
@@ -2159,7 +2222,7 @@
       <c r="C57" s="7" t="n"/>
       <c r="D57" s="7" t="n"/>
       <c r="E57" s="7" t="inlineStr"/>
-      <c r="F57" s="7" t="n"/>
+      <c r="F57" s="7" t="inlineStr"/>
       <c r="G57" s="7" t="n"/>
       <c r="H57" s="7" t="n"/>
       <c r="I57" s="7" t="inlineStr">
@@ -2180,7 +2243,7 @@
       <c r="C58" s="7" t="n"/>
       <c r="D58" s="7" t="n"/>
       <c r="E58" s="7" t="inlineStr"/>
-      <c r="F58" s="7" t="n"/>
+      <c r="F58" s="7" t="inlineStr"/>
       <c r="G58" s="7" t="n"/>
       <c r="H58" s="7" t="n"/>
       <c r="I58" s="7" t="inlineStr">
@@ -2207,7 +2270,7 @@
       <c r="I59" s="10" t="n"/>
       <c r="J59" s="10" t="n"/>
     </row>
-    <row r="60" ht="45" customHeight="1">
+    <row r="60" ht="120" customHeight="1">
       <c r="A60" s="6" t="inlineStr">
         <is>
           <t>ST410</t>
@@ -2236,7 +2299,12 @@
           <t>3Z4S-LE SV-3514H</t>
         </is>
       </c>
-      <c r="F60" s="7" t="n"/>
+      <c r="F60" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
       <c r="G60" s="13" t="inlineStr">
         <is>
           <t>FH-2051-20</t>
@@ -2270,7 +2338,12 @@
           <t>BL-50W-4S</t>
         </is>
       </c>
-      <c r="F61" s="7" t="n"/>
+      <c r="F61" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
       <c r="G61" s="7" t="n"/>
       <c r="H61" s="7" t="n"/>
       <c r="I61" s="7" t="inlineStr">
@@ -2291,7 +2364,12 @@
       <c r="C62" s="7" t="n"/>
       <c r="D62" s="7" t="n"/>
       <c r="E62" s="7" t="inlineStr"/>
-      <c r="F62" s="7" t="n"/>
+      <c r="F62" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5465
+</t>
+        </is>
+      </c>
       <c r="G62" s="7" t="n"/>
       <c r="H62" s="7" t="n"/>
       <c r="I62" s="7" t="inlineStr">
@@ -2321,7 +2399,12 @@
         </is>
       </c>
       <c r="E63" s="7" t="inlineStr"/>
-      <c r="F63" s="7" t="n"/>
+      <c r="F63" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
       <c r="G63" s="7" t="n"/>
       <c r="H63" s="7" t="n"/>
       <c r="I63" s="7" t="n"/>
@@ -2339,7 +2422,7 @@
       <c r="I64" s="10" t="n"/>
       <c r="J64" s="10" t="n"/>
     </row>
-    <row r="65" ht="30" customHeight="1">
+    <row r="65" ht="90" customHeight="1">
       <c r="A65" s="6" t="inlineStr">
         <is>
           <t>ST395</t>
@@ -2363,7 +2446,12 @@
         </is>
       </c>
       <c r="E65" s="7" t="inlineStr"/>
-      <c r="F65" s="7" t="n"/>
+      <c r="F65" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
       <c r="G65" s="14" t="inlineStr">
         <is>
           <t>FH-2051-10</t>
@@ -2378,7 +2466,7 @@
       <c r="I65" s="7" t="inlineStr"/>
       <c r="J65" s="7" t="inlineStr"/>
     </row>
-    <row r="66" ht="30" customHeight="1">
+    <row r="66" ht="90" customHeight="1">
       <c r="A66" s="6" t="n"/>
       <c r="B66" s="7" t="n"/>
       <c r="C66" s="7" t="inlineStr">
@@ -2393,7 +2481,12 @@
         </is>
       </c>
       <c r="E66" s="7" t="inlineStr"/>
-      <c r="F66" s="7" t="n"/>
+      <c r="F66" s="7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
       <c r="G66" s="14" t="inlineStr">
         <is>
           <t>FH-2051-10</t>
@@ -2528,7 +2621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -2542,12 +2635,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -2561,6 +2653,5 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TRIMAZKON/excel_testing_projekt_533.xlsx
+++ b/TRIMAZKON/excel_testing_projekt_533.xlsx
@@ -241,6 +241,91 @@
       <rowOff>0</rowOff>
     </from>
     <ext cx="3114675" cy="1152525"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8229600" cy="9182100"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="11268075" cy="7439025"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7734300" cy="9486900"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -613,7 +698,7 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>13.11.2024</t>
+          <t>14.11.2024</t>
         </is>
       </c>
     </row>
@@ -649,7 +734,7 @@
       </c>
       <c r="J5" s="5" t="n"/>
     </row>
-    <row r="6" ht="315" customHeight="1">
+    <row r="6" ht="285" customHeight="1">
       <c r="A6" s="6" t="inlineStr">
         <is>
           <t>ST010</t>
@@ -657,8 +742,9 @@
       </c>
       <c r="B6" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">kontrola tvaru/modelu senzoru (pohled ze strany senzoru) jsou dva modely – vzdálenost  
-</t>
+          <t>kontrola tvaru/modelu senzoru (pohled 
+ze strany senzoru) jsou dva modely – 
+vzdálenost</t>
         </is>
       </c>
       <c r="C6" s="7" t="inlineStr">
@@ -668,15 +754,14 @@
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kamera - popis: FH kamera, 
+          <t xml:space="preserve">Kamera - popis: FH kamera,
 vysokorychlostní, 0.4 Mpixel, C montáž, 
 celková uzávěrka, monochromatická
-Kabel (FZ-VS3 5M): příslušenství 
+Kabel (FZ-VS3 5M): příslušenství
 kamerových systémů, FH a FZ, kabel ke 
-standardní kameře, 
+standardní kameře,
 5m
-http://industrial.omron.eu/en/search?q=G639
-</t>
+http://industrial.omron.eu/en/search?q=G639 </t>
         </is>
       </c>
       <c r="E6" s="7" t="inlineStr">
@@ -686,23 +771,22 @@
       </c>
       <c r="F6" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alternativa: 3Z4S-LE SV-10028H
-Objektiv - popis: Příslušenství pro 
-kamery, čočky, C montáž, pro kamery 
+          <t>Alternativa: 3Z4S-LE SV-10028H
+Objektiv - popis: Příslušenství pro
+kamery, čočky, C montáž, pro kamery
 FZ-S_2M, FZ-S_5M3, FH-S_05R, FH-S_X05, 
-FHV7H, ohnisková vzdálenost 12 mm, 
+FHV7H, ohnisková vzdálenost 12 mm,
 nejmenší vzdálenost 100mm, světelnost 
 1,4 až 16, maximální kompatiblní CCD čip 
 2/3" nebo 1"
-Alternativní - popis: 
-Příslušenství pro kamery, čočky, C 
+Alternativní - popis:
+Příslušenství pro kamery, čočky, C
 montáž, pro kamery FZ-S_2M, FZ-S_5M3, 
 FH-S_05R, FH-S_X05, FHV7H, ohnisková 
 vzdálenost 75 mm, nejmenší vzdálenost 
-1200mm, světelnost 2,5 až zavřeno, 
+1200mm, světelnost 2,5 až zavřeno,
 maximální kompatiblní CCD čip 2/3" nebo 
-1", revize 1
-</t>
+1", revize 1</t>
         </is>
       </c>
       <c r="G6" s="8" t="inlineStr">
@@ -743,8 +827,8 @@
       <c r="B7" s="7" t="n"/>
       <c r="C7" s="7" t="n"/>
       <c r="D7" s="7" t="n"/>
-      <c r="E7" s="7" t="n"/>
-      <c r="F7" s="7" t="n"/>
+      <c r="E7" s="7" t="inlineStr"/>
+      <c r="F7" s="7" t="inlineStr"/>
       <c r="G7" s="7" t="n"/>
       <c r="H7" s="7" t="n"/>
       <c r="I7" s="7" t="inlineStr">
@@ -778,9 +862,10 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Guma – ověřit barvu (bude modrá) původní je oranžová 
-Pozice gumy na ploše cca 50x50 mm - kamera zespodu pod sklem 
-</t>
+          <t>Guma – ověřit barvu (bude modrá) původní 
+je oranžová
+Pozice gumy na ploše cca 50x50
+mm - kamera zespodu pod sklem</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr">
@@ -790,10 +875,9 @@
       </c>
       <c r="D9" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">5Mpx kamera
-Low-angle světlo (testováno s LA-120W)
-Svìtlo: LA-120W
-</t>
+          <t>5Mpx kamera
+Low-angle světlo (testováno s LA-120W) 
+Svìtlo: LA-120W</t>
         </is>
       </c>
       <c r="E9" s="7" t="inlineStr">
@@ -801,12 +885,7 @@
           <t>3Z4S-LE SV-2514H</t>
         </is>
       </c>
-      <c r="F9" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr">
         <is>
           <t>FH-2051-20</t>
@@ -845,8 +924,8 @@
       <c r="B10" s="7" t="n"/>
       <c r="C10" s="7" t="n"/>
       <c r="D10" s="7" t="n"/>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
       <c r="I10" s="7" t="inlineStr">
@@ -864,19 +943,9 @@
       <c r="A11" s="6" t="n"/>
       <c r="B11" s="7" t="n"/>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+      <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="n"/>
       <c r="H11" s="7" t="n"/>
       <c r="I11" s="7" t="n"/>
@@ -902,8 +971,8 @@
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kontrola barvy senzoru – chtějí dva kusy najednou… 
-</t>
+          <t>Kontrola barvy senzoru – chtějí dva kusy 
+najednou…</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr">
@@ -913,9 +982,8 @@
       </c>
       <c r="D13" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Svìtlo: DLU-140W-HI
-- v modelu
-</t>
+          <t>Svìtlo: DLU-140W-HI
+- v modelu</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr">
@@ -923,12 +991,7 @@
           <t>3Z4S-LE SV-2514H</t>
         </is>
       </c>
-      <c r="F13" s="7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+      <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr">
         <is>
           <t>FH-2051-20</t>
@@ -967,8 +1030,8 @@
       <c r="B14" s="7" t="n"/>
       <c r="C14" s="7" t="n"/>
       <c r="D14" s="7" t="n"/>
-      <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="n"/>
       <c r="H14" s="7" t="n"/>
       <c r="I14" s="7" t="inlineStr">
@@ -1067,8 +1130,8 @@
       <c r="B17" s="7" t="n"/>
       <c r="C17" s="7" t="n"/>
       <c r="D17" s="7" t="n"/>
-      <c r="E17" s="7" t="n"/>
-      <c r="F17" s="7" t="n"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="n"/>
       <c r="H17" s="7" t="n"/>
       <c r="I17" s="7" t="inlineStr">
@@ -2514,7 +2577,7 @@
       <c r="J67" s="15" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="99">
+  <mergeCells count="91">
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="C48:C50"/>
     <mergeCell ref="A16:A17"/>
@@ -2528,7 +2591,6 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="F13:F14"/>
     <mergeCell ref="D22:D24"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="C44:C46"/>
@@ -2537,10 +2599,8 @@
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="A19:A24"/>
-    <mergeCell ref="F16:F17"/>
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="D56:D58"/>
-    <mergeCell ref="E13:E14"/>
     <mergeCell ref="G39:G42"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G13:G14"/>
@@ -2556,7 +2616,6 @@
     <mergeCell ref="H44:H46"/>
     <mergeCell ref="B60:B63"/>
     <mergeCell ref="G48:G50"/>
-    <mergeCell ref="F9:F10"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="B48:B50"/>
@@ -2580,7 +2639,6 @@
     <mergeCell ref="B52:B54"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E16:E17"/>
     <mergeCell ref="B19:B24"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="G29:G34"/>
@@ -2589,7 +2647,6 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="C60:C62"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A56:A58"/>
     <mergeCell ref="C56:C58"/>
     <mergeCell ref="H22:H24"/>
@@ -2597,11 +2654,9 @@
     <mergeCell ref="I41:I42"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="G44:G46"/>
-    <mergeCell ref="E9:E10"/>
     <mergeCell ref="H48:H50"/>
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="G52:G54"/>
-    <mergeCell ref="E6:E7"/>
     <mergeCell ref="B56:B58"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B1:C3"/>
@@ -2621,7 +2676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -2635,11 +2690,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -2653,5 +2709,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>